--- a/data_month/zb/工业/工业主要产品产量/挖掘机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/挖掘机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3218 +454,3736 @@
           <t>挖掘机产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>挖掘机产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.7</v>
+        <v>72.5950782997763</v>
       </c>
       <c r="C2" t="n">
-        <v>2763</v>
+        <v>1543</v>
       </c>
       <c r="D2" t="n">
-        <v>27784</v>
+        <v>1543</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9</v>
+        <v>72.5950782997763</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.2</v>
+        <v>6.1</v>
       </c>
       <c r="C3" t="n">
-        <v>2899</v>
+        <v>1272</v>
       </c>
       <c r="D3" t="n">
-        <v>30644</v>
+        <v>2815</v>
       </c>
       <c r="E3" t="n">
-        <v>28.7</v>
+        <v>34.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.5</v>
+        <v>-1.3</v>
       </c>
       <c r="C4" t="n">
-        <v>3612.3</v>
+        <v>2543</v>
       </c>
       <c r="D4" t="n">
-        <v>34248.3</v>
+        <v>6066</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>13.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.5950782997763</v>
+        <v>-4.4</v>
       </c>
       <c r="C5" t="n">
-        <v>1543</v>
+        <v>2770</v>
       </c>
       <c r="D5" t="n">
-        <v>1543</v>
+        <v>8914</v>
       </c>
       <c r="E5" t="n">
-        <v>72.5950782997763</v>
+        <v>22.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.1</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1272</v>
+        <v>2534</v>
       </c>
       <c r="D6" t="n">
-        <v>2815</v>
+        <v>11527</v>
       </c>
       <c r="E6" t="n">
-        <v>34.5</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>2543</v>
+        <v>1992</v>
       </c>
       <c r="D7" t="n">
-        <v>6066</v>
+        <v>13519</v>
       </c>
       <c r="E7" t="n">
-        <v>13.5</v>
+        <v>18.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.4</v>
+        <v>27.7</v>
       </c>
       <c r="C8" t="n">
-        <v>2770</v>
+        <v>2105</v>
       </c>
       <c r="D8" t="n">
-        <v>8914</v>
+        <v>20377</v>
       </c>
       <c r="E8" t="n">
-        <v>22.1</v>
+        <v>23.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>62.1</v>
       </c>
       <c r="C9" t="n">
-        <v>2534</v>
+        <v>2281</v>
       </c>
       <c r="D9" t="n">
-        <v>11527</v>
+        <v>22647</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>26.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>41.6</v>
       </c>
       <c r="C10" t="n">
-        <v>1992</v>
+        <v>2451</v>
       </c>
       <c r="D10" t="n">
-        <v>13519</v>
+        <v>25089</v>
       </c>
       <c r="E10" t="n">
-        <v>18.2</v>
+        <v>27.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.7</v>
+        <v>52.7</v>
       </c>
       <c r="C11" t="n">
-        <v>2105</v>
+        <v>2763</v>
       </c>
       <c r="D11" t="n">
-        <v>20377</v>
+        <v>27784</v>
       </c>
       <c r="E11" t="n">
-        <v>23.4</v>
+        <v>30.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.1</v>
+        <v>12.2</v>
       </c>
       <c r="C12" t="n">
-        <v>2281</v>
+        <v>2899</v>
       </c>
       <c r="D12" t="n">
-        <v>22647</v>
+        <v>30644</v>
       </c>
       <c r="E12" t="n">
-        <v>26.1</v>
+        <v>28.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2860</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.6</v>
+        <v>54.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2451</v>
+        <v>3612.3</v>
       </c>
       <c r="D13" t="n">
-        <v>25089</v>
+        <v>34248.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27.4</v>
+        <v>31</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3604.300000000003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-1.6</v>
-      </c>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3746</v>
+        <v>4475</v>
       </c>
       <c r="D14" t="n">
-        <v>50804</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.4</v>
+        <v>4475</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>4475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.1</v>
+        <v>53.2</v>
       </c>
       <c r="C15" t="n">
-        <v>4297</v>
+        <v>4022</v>
       </c>
       <c r="D15" t="n">
-        <v>66293</v>
+        <v>8497</v>
       </c>
       <c r="E15" t="n">
-        <v>27.7</v>
+        <v>35.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-32.9</v>
+        <v>52.6</v>
       </c>
       <c r="C16" t="n">
-        <v>4376</v>
+        <v>6435</v>
       </c>
       <c r="D16" t="n">
-        <v>70669</v>
+        <v>15078</v>
       </c>
       <c r="E16" t="n">
-        <v>20.9</v>
+        <v>44.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>49.6</v>
+      </c>
       <c r="C17" t="n">
-        <v>4475</v>
+        <v>6709</v>
       </c>
       <c r="D17" t="n">
-        <v>4475</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>22363</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7285</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.2</v>
+        <v>39.6</v>
       </c>
       <c r="C18" t="n">
-        <v>4022</v>
+        <v>5493</v>
       </c>
       <c r="D18" t="n">
-        <v>8497</v>
+        <v>29348</v>
       </c>
       <c r="E18" t="n">
-        <v>35.6</v>
+        <v>44.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6985</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.6</v>
+        <v>12.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6435</v>
+        <v>4439</v>
       </c>
       <c r="D19" t="n">
-        <v>15078</v>
+        <v>35449</v>
       </c>
       <c r="E19" t="n">
-        <v>44.2</v>
+        <v>38.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.6</v>
+        <v>13.4</v>
       </c>
       <c r="C20" t="n">
-        <v>6709</v>
+        <v>3688</v>
       </c>
       <c r="D20" t="n">
-        <v>22363</v>
+        <v>39171</v>
       </c>
       <c r="E20" t="n">
-        <v>44.9</v>
+        <v>35.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3722</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.6</v>
+        <v>19.1</v>
       </c>
       <c r="C21" t="n">
-        <v>5493</v>
+        <v>3686</v>
       </c>
       <c r="D21" t="n">
-        <v>29348</v>
+        <v>42881</v>
       </c>
       <c r="E21" t="n">
-        <v>44.8</v>
+        <v>34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3710</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.1</v>
+        <v>26.2</v>
       </c>
       <c r="C22" t="n">
-        <v>4439</v>
+        <v>4175</v>
       </c>
       <c r="D22" t="n">
-        <v>35449</v>
+        <v>47046</v>
       </c>
       <c r="E22" t="n">
-        <v>38.2</v>
+        <v>33.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.4</v>
+        <v>-1.6</v>
       </c>
       <c r="C23" t="n">
-        <v>3688</v>
+        <v>3746</v>
       </c>
       <c r="D23" t="n">
-        <v>39171</v>
+        <v>50804</v>
       </c>
       <c r="E23" t="n">
-        <v>35.6</v>
+        <v>29.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3758</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.1</v>
+        <v>-20.1</v>
       </c>
       <c r="C24" t="n">
-        <v>3686</v>
+        <v>4297</v>
       </c>
       <c r="D24" t="n">
-        <v>42881</v>
+        <v>66293</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>27.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.2</v>
+        <v>-32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>4175</v>
+        <v>4376</v>
       </c>
       <c r="D25" t="n">
-        <v>47046</v>
+        <v>70669</v>
       </c>
       <c r="E25" t="n">
-        <v>33.2</v>
+        <v>20.9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.1</v>
+        <v>-21.8159842876567</v>
       </c>
       <c r="C26" t="n">
-        <v>8675</v>
+        <v>5175</v>
       </c>
       <c r="D26" t="n">
-        <v>87561</v>
+        <v>5175</v>
       </c>
       <c r="E26" t="n">
-        <v>5.1</v>
+        <v>-21.8159842876567</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.09999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="C27" t="n">
-        <v>10330</v>
+        <v>7784</v>
       </c>
       <c r="D27" t="n">
-        <v>97891</v>
+        <v>12959</v>
       </c>
       <c r="E27" t="n">
-        <v>9.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.5</v>
+        <v>-7</v>
       </c>
       <c r="C28" t="n">
-        <v>10711.23</v>
+        <v>11066.8</v>
       </c>
       <c r="D28" t="n">
-        <v>108394.23</v>
+        <v>24928.6</v>
       </c>
       <c r="E28" t="n">
-        <v>14.1</v>
+        <v>-3.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11969.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-21.8159842876567</v>
+        <v>1.5</v>
       </c>
       <c r="C29" t="n">
-        <v>5175</v>
+        <v>12907.7</v>
       </c>
       <c r="D29" t="n">
-        <v>5175</v>
+        <v>38324.3</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.8159842876567</v>
+        <v>-2.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>13395.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.2</v>
+        <v>-8.1</v>
       </c>
       <c r="C30" t="n">
-        <v>7784</v>
+        <v>7888.3</v>
       </c>
       <c r="D30" t="n">
-        <v>12959</v>
+        <v>46148.6</v>
       </c>
       <c r="E30" t="n">
-        <v>2.5</v>
+        <v>-3.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7824.299999999996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-7</v>
+        <v>21.7775161859918</v>
       </c>
       <c r="C31" t="n">
-        <v>11066.8</v>
+        <v>10345</v>
       </c>
       <c r="D31" t="n">
-        <v>24928.6</v>
+        <v>56743.6</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.5</v>
+        <v>-2.34131901418147</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10595</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.5</v>
+        <v>12.7188552188552</v>
       </c>
       <c r="C32" t="n">
-        <v>12907.7</v>
+        <v>6695.5</v>
       </c>
       <c r="D32" t="n">
-        <v>38324.3</v>
+        <v>63414.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.5</v>
+        <v>-0.814108078517244</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6670.900000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-8.1</v>
+        <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>7888.3</v>
+        <v>7456.5</v>
       </c>
       <c r="D33" t="n">
-        <v>46148.6</v>
+        <v>70706</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.7</v>
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7291.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.7775161859918</v>
+        <v>43.7581063553826</v>
       </c>
       <c r="C34" t="n">
-        <v>10345</v>
+        <v>8867</v>
       </c>
       <c r="D34" t="n">
-        <v>56743.6</v>
+        <v>77610</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.34131901418147</v>
+        <v>0.414025100271704</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6904</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.7188552188552</v>
+        <v>46.1</v>
       </c>
       <c r="C35" t="n">
-        <v>6695.5</v>
+        <v>8675</v>
       </c>
       <c r="D35" t="n">
-        <v>63414.5</v>
+        <v>87561</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.814108078517244</v>
+        <v>5.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9951</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>7456.5</v>
+        <v>10330</v>
       </c>
       <c r="D36" t="n">
-        <v>70706</v>
+        <v>97891</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>9.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.7581063553826</v>
+        <v>94.5</v>
       </c>
       <c r="C37" t="n">
-        <v>8867</v>
+        <v>10711.23</v>
       </c>
       <c r="D37" t="n">
-        <v>77610</v>
+        <v>108394.23</v>
       </c>
       <c r="E37" t="n">
-        <v>0.414025100271704</v>
+        <v>14.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10503.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>59.0417310664606</v>
+        <v>105.978498542274</v>
       </c>
       <c r="C38" t="n">
-        <v>15435</v>
+        <v>11304.15</v>
       </c>
       <c r="D38" t="n">
-        <v>151536.5</v>
+        <v>11304.15</v>
       </c>
       <c r="E38" t="n">
-        <v>65.5358683897185</v>
+        <v>105.978498542274</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11304.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59.6</v>
+        <v>34.227378474348</v>
       </c>
       <c r="C39" t="n">
-        <v>17873.5</v>
+        <v>10962.35</v>
       </c>
       <c r="D39" t="n">
-        <v>169662</v>
+        <v>22266.5</v>
       </c>
       <c r="E39" t="n">
-        <v>65.09999999999999</v>
+        <v>63.0648114243867</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10962.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.90000000000001</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>23011</v>
+        <v>19067</v>
       </c>
       <c r="D40" t="n">
-        <v>192811</v>
+        <v>41333.5</v>
       </c>
       <c r="E40" t="n">
-        <v>68.8</v>
+        <v>59.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19067</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.978498542274</v>
+        <v>47.6</v>
       </c>
       <c r="C41" t="n">
-        <v>11304.15</v>
+        <v>19605</v>
       </c>
       <c r="D41" t="n">
-        <v>11304.15</v>
+        <v>60803.5</v>
       </c>
       <c r="E41" t="n">
-        <v>105.978498542274</v>
+        <v>55.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19470</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.227378474348</v>
+        <v>122.678376229753</v>
       </c>
       <c r="C42" t="n">
-        <v>10962.35</v>
+        <v>17926.5</v>
       </c>
       <c r="D42" t="n">
-        <v>22266.5</v>
+        <v>79091</v>
       </c>
       <c r="E42" t="n">
-        <v>63.0648114243867</v>
+        <v>67.66158607678121</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18287.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.40000000000001</v>
+        <v>53.7</v>
       </c>
       <c r="C43" t="n">
-        <v>19067</v>
+        <v>15924</v>
       </c>
       <c r="D43" t="n">
-        <v>41333.5</v>
+        <v>95117</v>
       </c>
       <c r="E43" t="n">
-        <v>59.7</v>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16026</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.6</v>
+        <v>109.6</v>
       </c>
       <c r="C44" t="n">
-        <v>19605</v>
+        <v>14314</v>
       </c>
       <c r="D44" t="n">
-        <v>60803.5</v>
+        <v>109390</v>
       </c>
       <c r="E44" t="n">
-        <v>55.3</v>
+        <v>69.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14273</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>122.678376229753</v>
+        <v>73.7</v>
       </c>
       <c r="C45" t="n">
-        <v>17926.5</v>
+        <v>12726</v>
       </c>
       <c r="D45" t="n">
-        <v>79091</v>
+        <v>122888</v>
       </c>
       <c r="E45" t="n">
-        <v>67.66158607678121</v>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13498</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.7</v>
+        <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>15924</v>
+        <v>13005.5</v>
       </c>
       <c r="D46" t="n">
-        <v>95117</v>
+        <v>135893.5</v>
       </c>
       <c r="E46" t="n">
-        <v>64.90000000000001</v>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>13005.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>109.6</v>
+        <v>59.0417310664606</v>
       </c>
       <c r="C47" t="n">
-        <v>14314</v>
+        <v>15435</v>
       </c>
       <c r="D47" t="n">
-        <v>109390</v>
+        <v>151536.5</v>
       </c>
       <c r="E47" t="n">
-        <v>69.7</v>
+        <v>65.5358683897185</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15643</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>73.7</v>
+        <v>59.6</v>
       </c>
       <c r="C48" t="n">
-        <v>12726</v>
+        <v>17873.5</v>
       </c>
       <c r="D48" t="n">
-        <v>122888</v>
+        <v>169662</v>
       </c>
       <c r="E48" t="n">
-        <v>69.90000000000001</v>
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>18125.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>41.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>13005.5</v>
+        <v>23011</v>
       </c>
       <c r="D49" t="n">
-        <v>135893.5</v>
+        <v>192811</v>
       </c>
       <c r="E49" t="n">
-        <v>66.09999999999999</v>
+        <v>68.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-28.3</v>
+        <v>52.3002349049083</v>
       </c>
       <c r="C50" t="n">
-        <v>10615</v>
+        <v>17862</v>
       </c>
       <c r="D50" t="n">
-        <v>172554.7</v>
+        <v>17862</v>
       </c>
       <c r="E50" t="n">
-        <v>20.7</v>
+        <v>52.3002349049083</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17862</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-33</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>10533.3</v>
+        <v>17918</v>
       </c>
       <c r="D51" t="n">
-        <v>182977</v>
+        <v>35780</v>
       </c>
       <c r="E51" t="n">
-        <v>15.3</v>
+        <v>62.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>17918</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-43</v>
+        <v>53.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11983</v>
+        <v>27547</v>
       </c>
       <c r="D52" t="n">
-        <v>194961</v>
+        <v>63328</v>
       </c>
       <c r="E52" t="n">
-        <v>8.4</v>
+        <v>58.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>27548</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52.3002349049083</v>
+        <v>37.4</v>
       </c>
       <c r="C53" t="n">
-        <v>17862</v>
+        <v>24246</v>
       </c>
       <c r="D53" t="n">
-        <v>17862</v>
+        <v>87621</v>
       </c>
       <c r="E53" t="n">
-        <v>52.3002349049083</v>
+        <v>52.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24293</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>75.09999999999999</v>
+        <v>48.4</v>
       </c>
       <c r="C54" t="n">
-        <v>17918</v>
+        <v>24514</v>
       </c>
       <c r="D54" t="n">
-        <v>35780</v>
+        <v>113782</v>
       </c>
       <c r="E54" t="n">
-        <v>62.9</v>
+        <v>51.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26161</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>53.9</v>
+        <v>6.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27547</v>
+        <v>16055</v>
       </c>
       <c r="D55" t="n">
-        <v>63328</v>
+        <v>129837</v>
       </c>
       <c r="E55" t="n">
-        <v>58.9</v>
+        <v>44</v>
+      </c>
+      <c r="F55" t="n">
+        <v>16055</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B56" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11860</v>
+      </c>
+      <c r="D56" t="n">
+        <v>141694</v>
+      </c>
+      <c r="E56" t="n">
         <v>37.4</v>
       </c>
-      <c r="C56" t="n">
-        <v>24246</v>
-      </c>
-      <c r="D56" t="n">
-        <v>87621</v>
-      </c>
-      <c r="E56" t="n">
-        <v>52.8</v>
+      <c r="F56" t="n">
+        <v>11857</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>48.4</v>
+        <v>-17.6</v>
       </c>
       <c r="C57" t="n">
-        <v>24514</v>
+        <v>9972</v>
       </c>
       <c r="D57" t="n">
-        <v>113782</v>
+        <v>151399</v>
       </c>
       <c r="E57" t="n">
-        <v>51.7</v>
+        <v>31.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9705</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.5</v>
+        <v>-16.5</v>
       </c>
       <c r="C58" t="n">
-        <v>16055</v>
+        <v>10579.7</v>
       </c>
       <c r="D58" t="n">
-        <v>129837</v>
+        <v>161978.7</v>
       </c>
       <c r="E58" t="n">
-        <v>44</v>
+        <v>26.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10579.70000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-9</v>
+        <v>-28.3</v>
       </c>
       <c r="C59" t="n">
-        <v>11860</v>
+        <v>10615</v>
       </c>
       <c r="D59" t="n">
-        <v>141694</v>
+        <v>172554.7</v>
       </c>
       <c r="E59" t="n">
-        <v>37.4</v>
+        <v>20.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10576</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-17.6</v>
+        <v>-33</v>
       </c>
       <c r="C60" t="n">
-        <v>9972</v>
+        <v>10533.3</v>
       </c>
       <c r="D60" t="n">
-        <v>151399</v>
+        <v>182977</v>
       </c>
       <c r="E60" t="n">
-        <v>31.3</v>
+        <v>15.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10422.29999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-16.5</v>
+        <v>-43</v>
       </c>
       <c r="C61" t="n">
-        <v>10579.7</v>
+        <v>11983</v>
       </c>
       <c r="D61" t="n">
-        <v>161978.7</v>
+        <v>194961</v>
       </c>
       <c r="E61" t="n">
-        <v>26.6</v>
+        <v>8.4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11984</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-48</v>
+        <v>-27.4493337812115</v>
       </c>
       <c r="C62" t="n">
-        <v>6252</v>
+        <v>12959</v>
       </c>
       <c r="D62" t="n">
-        <v>124105</v>
+        <v>12959</v>
       </c>
       <c r="E62" t="n">
-        <v>-35.6</v>
+        <v>-27.4493337812115</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12959</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-20.6</v>
+        <v>6.6</v>
       </c>
       <c r="C63" t="n">
-        <v>8282</v>
+        <v>20249</v>
       </c>
       <c r="D63" t="n">
-        <v>132387</v>
+        <v>33208</v>
       </c>
       <c r="E63" t="n">
-        <v>-34.8</v>
+        <v>-14</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20249</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-27.8</v>
+        <v>-25.4</v>
       </c>
       <c r="C64" t="n">
-        <v>9775</v>
+        <v>24057</v>
       </c>
       <c r="D64" t="n">
-        <v>142162</v>
+        <v>55955</v>
       </c>
       <c r="E64" t="n">
-        <v>-34.4</v>
+        <v>-21.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>22747</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-27.4493337812115</v>
+        <v>-36.3</v>
       </c>
       <c r="C65" t="n">
-        <v>12959</v>
+        <v>17528</v>
       </c>
       <c r="D65" t="n">
-        <v>12959</v>
+        <v>73414</v>
       </c>
       <c r="E65" t="n">
-        <v>-27.4493337812115</v>
+        <v>-25.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.6</v>
+        <v>-54.2</v>
       </c>
       <c r="C66" t="n">
-        <v>20249</v>
+        <v>12529</v>
       </c>
       <c r="D66" t="n">
-        <v>33208</v>
+        <v>87036</v>
       </c>
       <c r="E66" t="n">
-        <v>-14</v>
+        <v>-31.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13622</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-25.4</v>
+        <v>-40.7</v>
       </c>
       <c r="C67" t="n">
-        <v>24057</v>
+        <v>11275</v>
       </c>
       <c r="D67" t="n">
-        <v>55955</v>
+        <v>96208</v>
       </c>
       <c r="E67" t="n">
-        <v>-21.6</v>
+        <v>-33.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9172</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-36.3</v>
+        <v>-22.4</v>
       </c>
       <c r="C68" t="n">
-        <v>17528</v>
+        <v>10308</v>
       </c>
       <c r="D68" t="n">
-        <v>73414</v>
+        <v>105108</v>
       </c>
       <c r="E68" t="n">
-        <v>-25.9</v>
+        <v>-32.9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8900</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-54.2</v>
+        <v>-48.7</v>
       </c>
       <c r="C69" t="n">
-        <v>12529</v>
+        <v>6313</v>
       </c>
       <c r="D69" t="n">
-        <v>87036</v>
+        <v>111448</v>
       </c>
       <c r="E69" t="n">
-        <v>-31.4</v>
+        <v>-33.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-40.7</v>
+        <v>-47.8</v>
       </c>
       <c r="C70" t="n">
-        <v>11275</v>
+        <v>6406</v>
       </c>
       <c r="D70" t="n">
-        <v>96208</v>
+        <v>117849</v>
       </c>
       <c r="E70" t="n">
-        <v>-33.3</v>
+        <v>-34.7</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6401</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-22.4</v>
+        <v>-48</v>
       </c>
       <c r="C71" t="n">
-        <v>10308</v>
+        <v>6252</v>
       </c>
       <c r="D71" t="n">
-        <v>105108</v>
+        <v>124105</v>
       </c>
       <c r="E71" t="n">
-        <v>-32.9</v>
+        <v>-35.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6256</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-48.7</v>
+        <v>-20.6</v>
       </c>
       <c r="C72" t="n">
-        <v>6313</v>
+        <v>8282</v>
       </c>
       <c r="D72" t="n">
-        <v>111448</v>
+        <v>132387</v>
       </c>
       <c r="E72" t="n">
-        <v>-33.9</v>
+        <v>-34.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8282</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-47.8</v>
+        <v>-27.8</v>
       </c>
       <c r="C73" t="n">
-        <v>6406</v>
+        <v>9775</v>
       </c>
       <c r="D73" t="n">
-        <v>117849</v>
+        <v>142162</v>
       </c>
       <c r="E73" t="n">
-        <v>-34.7</v>
+        <v>-34.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9775</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>40.2471315092674</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9534</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>121984</v>
+        <v>19494</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.33690886614403</v>
+        <v>-42.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>44.5348705775969</v>
+        <v>-22.2924901185771</v>
       </c>
       <c r="C75" t="n">
-        <v>12787</v>
+        <v>18677</v>
       </c>
       <c r="D75" t="n">
-        <v>135345</v>
+        <v>38225</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.08548269294113</v>
+        <v>-32.2600081518368</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18731</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>30.6909788867562</v>
+        <v>6.86301596949771</v>
       </c>
       <c r="C76" t="n">
-        <v>13618</v>
+        <v>19339</v>
       </c>
       <c r="D76" t="n">
-        <v>148877</v>
+        <v>58765</v>
       </c>
       <c r="E76" t="n">
-        <v>1.40448864216872</v>
+        <v>-21.553576911268</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20540</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>23.7436214628112</v>
+      </c>
+      <c r="C77" t="n">
+        <v>16005</v>
+      </c>
       <c r="D77" t="n">
-        <v>19494</v>
+        <v>75019</v>
       </c>
       <c r="E77" t="n">
-        <v>-42.2</v>
+        <v>-14.5997450025044</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16254</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-22.2924901185771</v>
+        <v>-7.17707594038325</v>
       </c>
       <c r="C78" t="n">
-        <v>18677</v>
+        <v>10463</v>
       </c>
       <c r="D78" t="n">
-        <v>38225</v>
+        <v>85464</v>
       </c>
       <c r="E78" t="n">
-        <v>-32.2600081518368</v>
+        <v>-13.8936466036633</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10445</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6.86301596949771</v>
+        <v>-13.1613022567518</v>
       </c>
       <c r="C79" t="n">
-        <v>19339</v>
+        <v>9389</v>
       </c>
       <c r="D79" t="n">
-        <v>58765</v>
+        <v>94834</v>
       </c>
       <c r="E79" t="n">
-        <v>-21.553576911268</v>
+        <v>-13.7001883719026</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9370</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>23.7436214628112</v>
+        <v>18.8637041455413</v>
       </c>
       <c r="C80" t="n">
-        <v>16005</v>
+        <v>7971</v>
       </c>
       <c r="D80" t="n">
-        <v>75019</v>
+        <v>102793</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.5997450025044</v>
+        <v>-11.9892804548101</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7959</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-7.17707594038325</v>
+        <v>41.8344847861238</v>
       </c>
       <c r="C81" t="n">
-        <v>10463</v>
+        <v>9649</v>
       </c>
       <c r="D81" t="n">
-        <v>85464</v>
+        <v>112440</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.8936466036633</v>
+        <v>-8.910473999303299</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9647</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-13.1613022567518</v>
+        <v>40.2471315092674</v>
       </c>
       <c r="C82" t="n">
-        <v>9389</v>
+        <v>9534</v>
       </c>
       <c r="D82" t="n">
-        <v>94834</v>
+        <v>121984</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.7001883719026</v>
+        <v>-6.33690886614403</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9544</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>18.8637041455413</v>
+        <v>44.5348705775969</v>
       </c>
       <c r="C83" t="n">
-        <v>7971</v>
+        <v>12787</v>
       </c>
       <c r="D83" t="n">
-        <v>102793</v>
+        <v>135345</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.9892804548101</v>
+        <v>-3.08548269294113</v>
+      </c>
+      <c r="F83" t="n">
+        <v>13361</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>41.8344847861238</v>
+        <v>30.6909788867562</v>
       </c>
       <c r="C84" t="n">
-        <v>9649</v>
+        <v>13618</v>
       </c>
       <c r="D84" t="n">
-        <v>112440</v>
+        <v>148877</v>
       </c>
       <c r="E84" t="n">
-        <v>-8.910473999303299</v>
+        <v>1.40448864216872</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13532</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-9.33217315640635</v>
-      </c>
-      <c r="C85" t="n">
-        <v>8336</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>108394</v>
+        <v>25616</v>
       </c>
       <c r="E85" t="n">
-        <v>-8.771545919741451</v>
+        <v>32.6429163214582</v>
+      </c>
+      <c r="F85" t="n">
+        <v>25616</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.2951783614269</v>
+        <v>-16.7311668345438</v>
       </c>
       <c r="C86" t="n">
-        <v>7998</v>
+        <v>15707</v>
       </c>
       <c r="D86" t="n">
-        <v>116392</v>
+        <v>41414</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.9329918358391</v>
+        <v>8.24642567761834</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15798</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-33.7374488657494</v>
+        <v>-15.0415046758432</v>
       </c>
       <c r="C87" t="n">
-        <v>8909</v>
+        <v>16171</v>
       </c>
       <c r="D87" t="n">
-        <v>125301</v>
+        <v>57677</v>
       </c>
       <c r="E87" t="n">
-        <v>-13.8190972055051</v>
+        <v>0.807480555798305</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16263</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-25.5188559858264</v>
+      </c>
+      <c r="C88" t="n">
+        <v>11771</v>
+      </c>
       <c r="D88" t="n">
-        <v>25616</v>
+        <v>70635</v>
       </c>
       <c r="E88" t="n">
-        <v>32.6429163214582</v>
+        <v>-4.37802054989238</v>
+      </c>
+      <c r="F88" t="n">
+        <v>12958</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-16.7311668345438</v>
+        <v>-22.9035796191046</v>
       </c>
       <c r="C89" t="n">
-        <v>15707</v>
+        <v>7732</v>
       </c>
       <c r="D89" t="n">
-        <v>41414</v>
+        <v>78354</v>
       </c>
       <c r="E89" t="n">
-        <v>8.24642567761834</v>
+        <v>-6.57461725568751</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7719</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-15.0415046758432</v>
+        <v>-14.6541228555617</v>
       </c>
       <c r="C90" t="n">
-        <v>16171</v>
+        <v>7711</v>
       </c>
       <c r="D90" t="n">
-        <v>57677</v>
+        <v>86066</v>
       </c>
       <c r="E90" t="n">
-        <v>0.807480555798305</v>
+        <v>-7.34033848671461</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7712</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-25.5188559858264</v>
+        <v>-19.6273943846759</v>
       </c>
       <c r="C91" t="n">
-        <v>11771</v>
+        <v>6126</v>
       </c>
       <c r="D91" t="n">
-        <v>70635</v>
+        <v>92192</v>
       </c>
       <c r="E91" t="n">
-        <v>-4.37802054989238</v>
+        <v>-8.261189722769521</v>
+      </c>
+      <c r="F91" t="n">
+        <v>6126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-22.9035796191046</v>
+        <v>-14.5429214446469</v>
       </c>
       <c r="C92" t="n">
-        <v>7732</v>
+        <v>7974</v>
       </c>
       <c r="D92" t="n">
-        <v>78354</v>
+        <v>100165</v>
       </c>
       <c r="E92" t="n">
-        <v>-6.57461725568751</v>
+        <v>-8.76258140911782</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7973</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-14.6541228555617</v>
+        <v>-9.33217315640635</v>
       </c>
       <c r="C93" t="n">
-        <v>7711</v>
+        <v>8336</v>
       </c>
       <c r="D93" t="n">
-        <v>86066</v>
+        <v>108394</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.34033848671461</v>
+        <v>-8.771545919741451</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8229</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-19.6273943846759</v>
+        <v>-37.2951783614269</v>
       </c>
       <c r="C94" t="n">
-        <v>6126</v>
+        <v>7998</v>
       </c>
       <c r="D94" t="n">
-        <v>92192</v>
+        <v>116392</v>
       </c>
       <c r="E94" t="n">
-        <v>-8.261189722769521</v>
+        <v>-11.9329918358391</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7998</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-14.5429214446469</v>
+        <v>-33.7374488657494</v>
       </c>
       <c r="C95" t="n">
-        <v>7974</v>
+        <v>8909</v>
       </c>
       <c r="D95" t="n">
-        <v>100165</v>
+        <v>125301</v>
       </c>
       <c r="E95" t="n">
-        <v>-8.76258140911782</v>
+        <v>-13.8190972055051</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8909</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-29.7</v>
+        <v>-39.7</v>
       </c>
       <c r="C96" t="n">
-        <v>5708</v>
+        <v>6748</v>
       </c>
       <c r="D96" t="n">
-        <v>78716</v>
+        <v>17217</v>
       </c>
       <c r="E96" t="n">
-        <v>-24.5</v>
+        <v>-30.1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>17217</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-14</v>
+        <v>-23.7</v>
       </c>
       <c r="C97" t="n">
-        <v>6675</v>
+        <v>11426</v>
       </c>
       <c r="D97" t="n">
-        <v>85392</v>
+        <v>28674</v>
       </c>
       <c r="E97" t="n">
-        <v>-23.9</v>
+        <v>-27.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11457</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-16.3</v>
+        <v>-31.1</v>
       </c>
       <c r="C98" t="n">
-        <v>7271</v>
+        <v>10793</v>
       </c>
       <c r="D98" t="n">
-        <v>92592</v>
+        <v>39539</v>
       </c>
       <c r="E98" t="n">
-        <v>-23.4</v>
+        <v>-28.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10865</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-39.7</v>
+        <v>-17.8</v>
       </c>
       <c r="C99" t="n">
-        <v>6748</v>
+        <v>9243</v>
       </c>
       <c r="D99" t="n">
-        <v>17217</v>
+        <v>47834</v>
       </c>
       <c r="E99" t="n">
-        <v>-30.1</v>
+        <v>-27.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8295</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-23.7</v>
+        <v>-10.3</v>
       </c>
       <c r="C100" t="n">
-        <v>11426</v>
+        <v>6698</v>
       </c>
       <c r="D100" t="n">
-        <v>28674</v>
+        <v>54449</v>
       </c>
       <c r="E100" t="n">
-        <v>-27.6</v>
+        <v>-27.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6615</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-31.1</v>
+        <v>-15.5</v>
       </c>
       <c r="C101" t="n">
-        <v>10793</v>
+        <v>6308</v>
       </c>
       <c r="D101" t="n">
-        <v>39539</v>
+        <v>60839</v>
       </c>
       <c r="E101" t="n">
-        <v>-28.8</v>
+        <v>-26.4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6390</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-17.8</v>
+        <v>-5.5</v>
       </c>
       <c r="C102" t="n">
-        <v>9243</v>
+        <v>5584</v>
       </c>
       <c r="D102" t="n">
-        <v>47834</v>
+        <v>66303</v>
       </c>
       <c r="E102" t="n">
-        <v>-27.8</v>
+        <v>-25.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5464</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-10.3</v>
+        <v>-15</v>
       </c>
       <c r="C103" t="n">
-        <v>6698</v>
+        <v>6557</v>
       </c>
       <c r="D103" t="n">
-        <v>54449</v>
+        <v>73031</v>
       </c>
       <c r="E103" t="n">
-        <v>-27.5</v>
+        <v>-24.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6728</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-15.5</v>
+        <v>-29.7</v>
       </c>
       <c r="C104" t="n">
-        <v>6308</v>
+        <v>5708</v>
       </c>
       <c r="D104" t="n">
-        <v>60839</v>
+        <v>78716</v>
       </c>
       <c r="E104" t="n">
-        <v>-26.4</v>
+        <v>-24.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5685</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-5.5</v>
+        <v>-14</v>
       </c>
       <c r="C105" t="n">
-        <v>5584</v>
+        <v>6675</v>
       </c>
       <c r="D105" t="n">
-        <v>66303</v>
+        <v>85392</v>
       </c>
       <c r="E105" t="n">
-        <v>-25.2</v>
+        <v>-23.9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6676</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-15</v>
+        <v>-16.3</v>
       </c>
       <c r="C106" t="n">
-        <v>6557</v>
+        <v>7271</v>
       </c>
       <c r="D106" t="n">
-        <v>73031</v>
+        <v>92592</v>
       </c>
       <c r="E106" t="n">
-        <v>-24.3</v>
+        <v>-23.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7200</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9286</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>88476</v>
+        <v>14358</v>
       </c>
       <c r="E107" t="n">
-        <v>11.4</v>
+        <v>-16.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14358</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>61.4</v>
+        <v>-6.7</v>
       </c>
       <c r="C108" t="n">
-        <v>10774</v>
+        <v>10740</v>
       </c>
       <c r="D108" t="n">
-        <v>99447</v>
+        <v>25081</v>
       </c>
       <c r="E108" t="n">
-        <v>15.5</v>
+        <v>-12.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10723</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>65.40000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="C109" t="n">
-        <v>11920</v>
+        <v>11513</v>
       </c>
       <c r="D109" t="n">
-        <v>111395</v>
+        <v>36691</v>
       </c>
       <c r="E109" t="n">
-        <v>19.4</v>
+        <v>-7.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11610</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10211</v>
+      </c>
       <c r="D110" t="n">
-        <v>14358</v>
+        <v>46900</v>
       </c>
       <c r="E110" t="n">
-        <v>-16.9</v>
+        <v>-2.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10209</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-6.7</v>
+        <v>19.8</v>
       </c>
       <c r="C111" t="n">
-        <v>10740</v>
+        <v>8278</v>
       </c>
       <c r="D111" t="n">
-        <v>25081</v>
+        <v>55161</v>
       </c>
       <c r="E111" t="n">
-        <v>-12.6</v>
+        <v>-0.4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>8261</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5.5</v>
+        <v>27.1</v>
       </c>
       <c r="C112" t="n">
-        <v>11513</v>
+        <v>8215</v>
       </c>
       <c r="D112" t="n">
-        <v>36691</v>
+        <v>63156</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.6</v>
+        <v>2.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7995</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>10.8</v>
+        <v>34</v>
       </c>
       <c r="C113" t="n">
-        <v>10211</v>
+        <v>7518</v>
       </c>
       <c r="D113" t="n">
-        <v>46900</v>
+        <v>70397</v>
       </c>
       <c r="E113" t="n">
-        <v>-2.7</v>
+        <v>4.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7241</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>19.8</v>
+        <v>34</v>
       </c>
       <c r="C114" t="n">
-        <v>8278</v>
+        <v>8795</v>
       </c>
       <c r="D114" t="n">
-        <v>55161</v>
+        <v>79192</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.4</v>
+        <v>7.4</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8795</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>27.1</v>
+        <v>62.9</v>
       </c>
       <c r="C115" t="n">
-        <v>8215</v>
+        <v>9286</v>
       </c>
       <c r="D115" t="n">
-        <v>63156</v>
+        <v>88476</v>
       </c>
       <c r="E115" t="n">
-        <v>2.6</v>
+        <v>11.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9284</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>34</v>
+        <v>61.4</v>
       </c>
       <c r="C116" t="n">
-        <v>7518</v>
+        <v>10774</v>
       </c>
       <c r="D116" t="n">
-        <v>70397</v>
+        <v>99447</v>
       </c>
       <c r="E116" t="n">
-        <v>4.8</v>
+        <v>15.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10971</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>34</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>8795</v>
+        <v>11920</v>
       </c>
       <c r="D117" t="n">
-        <v>79192</v>
+        <v>111395</v>
       </c>
       <c r="E117" t="n">
-        <v>7.4</v>
+        <v>19.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>11948</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>16092</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>162500</v>
+        <v>22381</v>
       </c>
       <c r="E118" t="n">
-        <v>65.8</v>
+        <v>55.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22381</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>63.9</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>19868</v>
+        <v>19292</v>
       </c>
       <c r="D119" t="n">
-        <v>182141</v>
+        <v>44682</v>
       </c>
       <c r="E119" t="n">
-        <v>65.09999999999999</v>
+        <v>78.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>22301</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>89</v>
+        <v>62.7</v>
       </c>
       <c r="C120" t="n">
-        <v>23010</v>
+        <v>18676</v>
       </c>
       <c r="D120" t="n">
-        <v>194606</v>
+        <v>63433</v>
       </c>
       <c r="E120" t="n">
-        <v>77.2</v>
+        <v>73.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16675</v>
+      </c>
       <c r="D121" t="n">
-        <v>22381</v>
+        <v>80108</v>
       </c>
       <c r="E121" t="n">
-        <v>55.9</v>
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>16675</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>79.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="C122" t="n">
-        <v>19292</v>
+        <v>14730</v>
       </c>
       <c r="D122" t="n">
-        <v>44682</v>
+        <v>94839</v>
       </c>
       <c r="E122" t="n">
-        <v>78.2</v>
+        <v>72.59999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14731</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>62.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>18676</v>
+        <v>14651</v>
       </c>
       <c r="D123" t="n">
-        <v>63433</v>
+        <v>117735</v>
       </c>
       <c r="E123" t="n">
-        <v>73.5</v>
+        <v>69</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22896</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>63.8</v>
+        <v>69.7</v>
       </c>
       <c r="C124" t="n">
-        <v>16675</v>
+        <v>14111</v>
       </c>
       <c r="D124" t="n">
-        <v>80108</v>
+        <v>131210</v>
       </c>
       <c r="E124" t="n">
-        <v>71.40000000000001</v>
+        <v>68.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>13475</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>78.7</v>
+        <v>59</v>
       </c>
       <c r="C125" t="n">
-        <v>14730</v>
+        <v>15238</v>
       </c>
       <c r="D125" t="n">
-        <v>94839</v>
+        <v>146180</v>
       </c>
       <c r="E125" t="n">
-        <v>72.59999999999999</v>
+        <v>67</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14970</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>66.09999999999999</v>
+        <v>56.5</v>
       </c>
       <c r="C126" t="n">
-        <v>14651</v>
+        <v>16092</v>
       </c>
       <c r="D126" t="n">
-        <v>117735</v>
+        <v>162500</v>
       </c>
       <c r="E126" t="n">
-        <v>69</v>
+        <v>65.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>16320</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>69.7</v>
+        <v>63.9</v>
       </c>
       <c r="C127" t="n">
-        <v>14111</v>
+        <v>19868</v>
       </c>
       <c r="D127" t="n">
-        <v>131210</v>
+        <v>182141</v>
       </c>
       <c r="E127" t="n">
-        <v>68.3</v>
+        <v>65.09999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19641</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C128" t="n">
-        <v>15238</v>
+        <v>23010</v>
       </c>
       <c r="D128" t="n">
-        <v>146180</v>
+        <v>194606</v>
       </c>
       <c r="E128" t="n">
-        <v>67</v>
+        <v>77.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12465</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>21405</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>216101</v>
+        <v>34283</v>
       </c>
       <c r="E129" t="n">
-        <v>51.3</v>
+        <v>50.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34283</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>40.1</v>
+        <v>21.8</v>
       </c>
       <c r="C130" t="n">
-        <v>25232</v>
+        <v>27302</v>
       </c>
       <c r="D130" t="n">
-        <v>240710</v>
+        <v>61620</v>
       </c>
       <c r="E130" t="n">
-        <v>50.4</v>
+        <v>35.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27337</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>29.1</v>
+        <v>35.8</v>
       </c>
       <c r="C131" t="n">
-        <v>28822</v>
+        <v>25822</v>
       </c>
       <c r="D131" t="n">
-        <v>269532</v>
+        <v>87534</v>
       </c>
       <c r="E131" t="n">
-        <v>47.9</v>
+        <v>35.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>25914</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>25618</v>
+      </c>
       <c r="D132" t="n">
-        <v>34283</v>
+        <v>111922</v>
       </c>
       <c r="E132" t="n">
-        <v>50.7</v>
+        <v>37.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>24388</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>21.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>27302</v>
+        <v>24601</v>
       </c>
       <c r="D133" t="n">
-        <v>61620</v>
+        <v>137150</v>
       </c>
       <c r="E133" t="n">
-        <v>35.7</v>
+        <v>43.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>25228</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>35.8</v>
+        <v>57.4</v>
       </c>
       <c r="C134" t="n">
-        <v>25822</v>
+        <v>20958</v>
       </c>
       <c r="D134" t="n">
-        <v>87534</v>
+        <v>158798</v>
       </c>
       <c r="E134" t="n">
-        <v>35.7</v>
+        <v>45.9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21648</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>51.6</v>
+        <v>33.2</v>
       </c>
       <c r="C135" t="n">
-        <v>25618</v>
+        <v>17524</v>
       </c>
       <c r="D135" t="n">
-        <v>111922</v>
+        <v>176323</v>
       </c>
       <c r="E135" t="n">
-        <v>37.5</v>
+        <v>44.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17525</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>67.09999999999999</v>
+        <v>48.1</v>
       </c>
       <c r="C136" t="n">
-        <v>24601</v>
+        <v>19655</v>
       </c>
       <c r="D136" t="n">
-        <v>137150</v>
+        <v>194153</v>
       </c>
       <c r="E136" t="n">
-        <v>43.5</v>
+        <v>51.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>17830</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>57.4</v>
+        <v>51.1</v>
       </c>
       <c r="C137" t="n">
-        <v>20958</v>
+        <v>21405</v>
       </c>
       <c r="D137" t="n">
-        <v>158798</v>
+        <v>216101</v>
       </c>
       <c r="E137" t="n">
-        <v>45.9</v>
+        <v>51.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>21948</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>33.2</v>
+        <v>40.1</v>
       </c>
       <c r="C138" t="n">
-        <v>17524</v>
+        <v>25232</v>
       </c>
       <c r="D138" t="n">
-        <v>176323</v>
+        <v>240710</v>
       </c>
       <c r="E138" t="n">
-        <v>44.5</v>
+        <v>50.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24609</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>48.1</v>
+        <v>29.1</v>
       </c>
       <c r="C139" t="n">
-        <v>19655</v>
+        <v>28822</v>
       </c>
       <c r="D139" t="n">
-        <v>194153</v>
+        <v>269532</v>
       </c>
       <c r="E139" t="n">
-        <v>51.7</v>
+        <v>47.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28822</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>24889</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>237889</v>
+        <v>49534</v>
       </c>
       <c r="E140" t="n">
-        <v>15.6</v>
+        <v>52.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>49534</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>17</v>
+        <v>27.5</v>
       </c>
       <c r="C141" t="n">
-        <v>26180</v>
+        <v>33877</v>
       </c>
       <c r="D141" t="n">
-        <v>237582</v>
+        <v>83573</v>
       </c>
       <c r="E141" t="n">
-        <v>14.9</v>
+        <v>40.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>34039</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>13</v>
+        <v>20.6</v>
       </c>
       <c r="C142" t="n">
-        <v>28720</v>
+        <v>30825</v>
       </c>
       <c r="D142" t="n">
-        <v>266299</v>
+        <v>114193</v>
       </c>
       <c r="E142" t="n">
-        <v>14.7</v>
+        <v>34</v>
+      </c>
+      <c r="F142" t="n">
+        <v>30620</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>24209</v>
+      </c>
       <c r="D143" t="n">
-        <v>49534</v>
+        <v>138450</v>
       </c>
       <c r="E143" t="n">
-        <v>52.3</v>
+        <v>25.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24257</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>27.5</v>
+        <v>-12</v>
       </c>
       <c r="C144" t="n">
-        <v>33877</v>
+        <v>21378</v>
       </c>
       <c r="D144" t="n">
-        <v>83573</v>
+        <v>159884</v>
       </c>
       <c r="E144" t="n">
-        <v>40.7</v>
+        <v>19.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21434</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>20.6</v>
+        <v>-22.7</v>
       </c>
       <c r="C145" t="n">
-        <v>30825</v>
+        <v>15813</v>
       </c>
       <c r="D145" t="n">
-        <v>114193</v>
+        <v>176517</v>
       </c>
       <c r="E145" t="n">
-        <v>34</v>
+        <v>14.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16633</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-4.4</v>
+        <v>6.8</v>
       </c>
       <c r="C146" t="n">
-        <v>24209</v>
+        <v>17540</v>
       </c>
       <c r="D146" t="n">
-        <v>138450</v>
+        <v>192418</v>
       </c>
       <c r="E146" t="n">
-        <v>25.2</v>
+        <v>15.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15901</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-12</v>
+        <v>18.1</v>
       </c>
       <c r="C147" t="n">
-        <v>21378</v>
+        <v>21957</v>
       </c>
       <c r="D147" t="n">
-        <v>159884</v>
+        <v>213949</v>
       </c>
       <c r="E147" t="n">
-        <v>19.1</v>
+        <v>15.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>21531</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-22.7</v>
+        <v>23.1</v>
       </c>
       <c r="C148" t="n">
-        <v>15813</v>
+        <v>24889</v>
       </c>
       <c r="D148" t="n">
-        <v>176517</v>
+        <v>237889</v>
       </c>
       <c r="E148" t="n">
-        <v>14.3</v>
+        <v>15.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>23940</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="C149" t="n">
-        <v>17540</v>
+        <v>26180</v>
       </c>
       <c r="D149" t="n">
-        <v>192418</v>
+        <v>237582</v>
       </c>
       <c r="E149" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>237582</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>18.1</v>
+        <v>13</v>
       </c>
       <c r="C150" t="n">
-        <v>21957</v>
+        <v>28720</v>
       </c>
       <c r="D150" t="n">
-        <v>213949</v>
+        <v>266299</v>
       </c>
       <c r="E150" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>28717</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>35098</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>307284</v>
+        <v>27629</v>
       </c>
       <c r="E151" t="n">
-        <v>32.7</v>
+        <v>-35.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>27629</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49.9</v>
+        <v>2.3</v>
       </c>
       <c r="C152" t="n">
-        <v>44371</v>
+        <v>31101</v>
       </c>
       <c r="D152" t="n">
-        <v>351656</v>
+        <v>58735</v>
       </c>
       <c r="E152" t="n">
-        <v>34.7</v>
+        <v>-19.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31106</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>53.6</v>
+        <v>49.5</v>
       </c>
       <c r="C153" t="n">
-        <v>49439</v>
+        <v>43622</v>
       </c>
       <c r="D153" t="n">
-        <v>401096</v>
+        <v>112927</v>
       </c>
       <c r="E153" t="n">
-        <v>36.7</v>
+        <v>1.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>54192</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>40420</v>
+      </c>
       <c r="D154" t="n">
-        <v>27629</v>
+        <v>153289</v>
       </c>
       <c r="E154" t="n">
-        <v>-35.7</v>
+        <v>14.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>40362</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2.3</v>
+        <v>75.2</v>
       </c>
       <c r="C155" t="n">
-        <v>31101</v>
+        <v>33970</v>
       </c>
       <c r="D155" t="n">
-        <v>58735</v>
+        <v>187379</v>
       </c>
       <c r="E155" t="n">
-        <v>-19.9</v>
+        <v>22.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>34090</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>49.5</v>
+        <v>68.7</v>
       </c>
       <c r="C156" t="n">
-        <v>43622</v>
+        <v>25275</v>
       </c>
       <c r="D156" t="n">
-        <v>112927</v>
+        <v>213364</v>
       </c>
       <c r="E156" t="n">
-        <v>1.3</v>
+        <v>25.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25985</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>82.3</v>
+        <v>58.2</v>
       </c>
       <c r="C157" t="n">
-        <v>40420</v>
+        <v>27006</v>
       </c>
       <c r="D157" t="n">
-        <v>153289</v>
+        <v>240308</v>
       </c>
       <c r="E157" t="n">
-        <v>14.7</v>
+        <v>28.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>26944</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>75.2</v>
+        <v>56.5</v>
       </c>
       <c r="C158" t="n">
-        <v>33970</v>
+        <v>31789</v>
       </c>
       <c r="D158" t="n">
-        <v>187379</v>
+        <v>272118</v>
       </c>
       <c r="E158" t="n">
-        <v>22.4</v>
+        <v>31.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>31810</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>68.7</v>
+        <v>42.4</v>
       </c>
       <c r="C159" t="n">
-        <v>25275</v>
+        <v>35098</v>
       </c>
       <c r="D159" t="n">
-        <v>213364</v>
+        <v>307284</v>
       </c>
       <c r="E159" t="n">
-        <v>25.5</v>
+        <v>32.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>58.2</v>
+        <v>49.9</v>
       </c>
       <c r="C160" t="n">
-        <v>27006</v>
+        <v>44371</v>
       </c>
       <c r="D160" t="n">
-        <v>240308</v>
+        <v>351656</v>
       </c>
       <c r="E160" t="n">
-        <v>28.5</v>
+        <v>34.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>44372</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>56.5</v>
+        <v>53.6</v>
       </c>
       <c r="C161" t="n">
-        <v>31789</v>
+        <v>49439</v>
       </c>
       <c r="D161" t="n">
-        <v>272118</v>
+        <v>401096</v>
       </c>
       <c r="E161" t="n">
-        <v>31.2</v>
+        <v>36.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>49440</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="C162" t="n">
-        <v>26725</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>299230</v>
+        <v>71089</v>
       </c>
       <c r="E162" t="n">
-        <v>11.9</v>
+        <v>113</v>
+      </c>
+      <c r="F162" t="n">
+        <v>71089</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-15.6</v>
+        <v>61.5</v>
       </c>
       <c r="C163" t="n">
-        <v>29850</v>
+        <v>58429</v>
       </c>
       <c r="D163" t="n">
-        <v>329044</v>
+        <v>132983</v>
       </c>
       <c r="E163" t="n">
-        <v>10.5</v>
+        <v>83.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>61894</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-18</v>
+        <v>-2.9</v>
       </c>
       <c r="C164" t="n">
-        <v>32949</v>
+        <v>43412</v>
       </c>
       <c r="D164" t="n">
-        <v>362029</v>
+        <v>182187</v>
       </c>
       <c r="E164" t="n">
-        <v>5.4</v>
+        <v>53</v>
+      </c>
+      <c r="F164" t="n">
+        <v>49204</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>36102</v>
+      </c>
       <c r="D165" t="n">
-        <v>71089</v>
+        <v>235183</v>
       </c>
       <c r="E165" t="n">
-        <v>113</v>
+        <v>37.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>52996</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>61.5</v>
+        <v>-25.7</v>
       </c>
       <c r="C166" t="n">
-        <v>58429</v>
+        <v>27284</v>
       </c>
       <c r="D166" t="n">
-        <v>132983</v>
+        <v>261740</v>
       </c>
       <c r="E166" t="n">
-        <v>83.2</v>
+        <v>25.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>26557</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-2.9</v>
+        <v>-18.4</v>
       </c>
       <c r="C167" t="n">
-        <v>43412</v>
+        <v>18357</v>
       </c>
       <c r="D167" t="n">
-        <v>182187</v>
+        <v>232633</v>
       </c>
       <c r="E167" t="n">
-        <v>53</v>
+        <v>22.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>232633</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-18.8</v>
+        <v>-24.6</v>
       </c>
       <c r="C168" t="n">
-        <v>36102</v>
+        <v>17236</v>
       </c>
       <c r="D168" t="n">
-        <v>235183</v>
+        <v>250007</v>
       </c>
       <c r="E168" t="n">
-        <v>37.1</v>
+        <v>17.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17374</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-25.7</v>
+        <v>-5.7</v>
       </c>
       <c r="C169" t="n">
-        <v>27284</v>
+        <v>25894</v>
       </c>
       <c r="D169" t="n">
-        <v>261740</v>
+        <v>272730</v>
       </c>
       <c r="E169" t="n">
-        <v>25.6</v>
+        <v>15</v>
+      </c>
+      <c r="F169" t="n">
+        <v>22723</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-18.4</v>
+        <v>-11.4</v>
       </c>
       <c r="C170" t="n">
-        <v>18357</v>
+        <v>26725</v>
       </c>
       <c r="D170" t="n">
-        <v>232633</v>
+        <v>299230</v>
       </c>
       <c r="E170" t="n">
-        <v>22.7</v>
+        <v>11.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>26500</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-24.6</v>
+        <v>-15.6</v>
       </c>
       <c r="C171" t="n">
-        <v>17236</v>
+        <v>29850</v>
       </c>
       <c r="D171" t="n">
-        <v>250007</v>
+        <v>329044</v>
       </c>
       <c r="E171" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29814</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-5.7</v>
+        <v>-18</v>
       </c>
       <c r="C172" t="n">
-        <v>25894</v>
+        <v>32949</v>
       </c>
       <c r="D172" t="n">
-        <v>272730</v>
+        <v>362029</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>5.4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>32985</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/挖掘机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/挖掘机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3736 +454,2834 @@
           <t>挖掘机产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>挖掘机产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.5950782997763</v>
+        <v>59.0417310664606</v>
       </c>
       <c r="C2" t="n">
-        <v>1543</v>
+        <v>15435</v>
       </c>
       <c r="D2" t="n">
-        <v>1543</v>
+        <v>151536.5</v>
       </c>
       <c r="E2" t="n">
-        <v>72.5950782997763</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1543</v>
+        <v>65.5358683897185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.1</v>
+        <v>59.6</v>
       </c>
       <c r="C3" t="n">
-        <v>1272</v>
+        <v>17873.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2815</v>
+        <v>169662</v>
       </c>
       <c r="E3" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1272</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2543</v>
+        <v>23011</v>
       </c>
       <c r="D4" t="n">
-        <v>6066</v>
+        <v>192811</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3251</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.4</v>
+        <v>105.978498542274</v>
       </c>
       <c r="C5" t="n">
-        <v>2770</v>
+        <v>11304.15</v>
       </c>
       <c r="D5" t="n">
-        <v>8914</v>
+        <v>11304.15</v>
       </c>
       <c r="E5" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2848</v>
+        <v>105.978498542274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>34.227378474348</v>
       </c>
       <c r="C6" t="n">
-        <v>2534</v>
+        <v>10962.35</v>
       </c>
       <c r="D6" t="n">
-        <v>11527</v>
+        <v>22266.5</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2613</v>
+        <v>63.0648114243867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>1992</v>
+        <v>19067</v>
       </c>
       <c r="D7" t="n">
-        <v>13519</v>
+        <v>41333.5</v>
       </c>
       <c r="E7" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1992</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.7</v>
+        <v>47.6</v>
       </c>
       <c r="C8" t="n">
-        <v>2105</v>
+        <v>19605</v>
       </c>
       <c r="D8" t="n">
-        <v>20377</v>
+        <v>60803.5</v>
       </c>
       <c r="E8" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6858</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.1</v>
+        <v>122.678376229753</v>
       </c>
       <c r="C9" t="n">
-        <v>2281</v>
+        <v>17926.5</v>
       </c>
       <c r="D9" t="n">
-        <v>22647</v>
+        <v>79091</v>
       </c>
       <c r="E9" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2270</v>
+        <v>67.66158607678121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.6</v>
+        <v>53.7</v>
       </c>
       <c r="C10" t="n">
-        <v>2451</v>
+        <v>15924</v>
       </c>
       <c r="D10" t="n">
-        <v>25089</v>
+        <v>95117</v>
       </c>
       <c r="E10" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2442</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.7</v>
+        <v>109.6</v>
       </c>
       <c r="C11" t="n">
-        <v>2763</v>
+        <v>14314</v>
       </c>
       <c r="D11" t="n">
-        <v>27784</v>
+        <v>109390</v>
       </c>
       <c r="E11" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2695</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.2</v>
+        <v>73.7</v>
       </c>
       <c r="C12" t="n">
-        <v>2899</v>
+        <v>12726</v>
       </c>
       <c r="D12" t="n">
-        <v>30644</v>
+        <v>122888</v>
       </c>
       <c r="E12" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2860</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.5</v>
+        <v>41.2</v>
       </c>
       <c r="C13" t="n">
-        <v>3612.3</v>
+        <v>13005.5</v>
       </c>
       <c r="D13" t="n">
-        <v>34248.3</v>
+        <v>135893.5</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3604.300000000003</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-28.3</v>
+      </c>
       <c r="C14" t="n">
-        <v>4475</v>
+        <v>10615</v>
       </c>
       <c r="D14" t="n">
-        <v>4475</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>4475</v>
+        <v>172554.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53.2</v>
+        <v>-33</v>
       </c>
       <c r="C15" t="n">
-        <v>4022</v>
+        <v>10533.3</v>
       </c>
       <c r="D15" t="n">
-        <v>8497</v>
+        <v>182977</v>
       </c>
       <c r="E15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4022</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.6</v>
+        <v>-43</v>
       </c>
       <c r="C16" t="n">
-        <v>6435</v>
+        <v>11983</v>
       </c>
       <c r="D16" t="n">
-        <v>15078</v>
+        <v>194961</v>
       </c>
       <c r="E16" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6581</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.6</v>
+        <v>52.3002349049083</v>
       </c>
       <c r="C17" t="n">
-        <v>6709</v>
+        <v>17862</v>
       </c>
       <c r="D17" t="n">
-        <v>22363</v>
+        <v>17862</v>
       </c>
       <c r="E17" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7285</v>
+        <v>52.3002349049083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.6</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>5493</v>
+        <v>17918</v>
       </c>
       <c r="D18" t="n">
-        <v>29348</v>
+        <v>35780</v>
       </c>
       <c r="E18" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6985</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.1</v>
+        <v>53.9</v>
       </c>
       <c r="C19" t="n">
-        <v>4439</v>
+        <v>27547</v>
       </c>
       <c r="D19" t="n">
-        <v>35449</v>
+        <v>63328</v>
       </c>
       <c r="E19" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6101</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.4</v>
+        <v>37.4</v>
       </c>
       <c r="C20" t="n">
-        <v>3688</v>
+        <v>24246</v>
       </c>
       <c r="D20" t="n">
-        <v>39171</v>
+        <v>87621</v>
       </c>
       <c r="E20" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3722</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.1</v>
+        <v>48.4</v>
       </c>
       <c r="C21" t="n">
-        <v>3686</v>
+        <v>24514</v>
       </c>
       <c r="D21" t="n">
-        <v>42881</v>
+        <v>113782</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3710</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.2</v>
+        <v>6.5</v>
       </c>
       <c r="C22" t="n">
-        <v>4175</v>
+        <v>16055</v>
       </c>
       <c r="D22" t="n">
-        <v>47046</v>
+        <v>129837</v>
       </c>
       <c r="E22" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.6</v>
+        <v>-9</v>
       </c>
       <c r="C23" t="n">
-        <v>3746</v>
+        <v>11860</v>
       </c>
       <c r="D23" t="n">
-        <v>50804</v>
+        <v>141694</v>
       </c>
       <c r="E23" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3758</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-20.1</v>
+        <v>-17.6</v>
       </c>
       <c r="C24" t="n">
-        <v>4297</v>
+        <v>9972</v>
       </c>
       <c r="D24" t="n">
-        <v>66293</v>
+        <v>151399</v>
       </c>
       <c r="E24" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>15489</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-32.9</v>
+        <v>-16.5</v>
       </c>
       <c r="C25" t="n">
-        <v>4376</v>
+        <v>10579.7</v>
       </c>
       <c r="D25" t="n">
-        <v>70669</v>
+        <v>161978.7</v>
       </c>
       <c r="E25" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4376</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-21.8159842876567</v>
+        <v>-48</v>
       </c>
       <c r="C26" t="n">
-        <v>5175</v>
+        <v>6252</v>
       </c>
       <c r="D26" t="n">
-        <v>5175</v>
+        <v>124105</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.8159842876567</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5175</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.2</v>
+        <v>-20.6</v>
       </c>
       <c r="C27" t="n">
-        <v>7784</v>
+        <v>8282</v>
       </c>
       <c r="D27" t="n">
-        <v>12959</v>
+        <v>132387</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7784</v>
+        <v>-34.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-7</v>
+        <v>-27.8</v>
       </c>
       <c r="C28" t="n">
-        <v>11066.8</v>
+        <v>9775</v>
       </c>
       <c r="D28" t="n">
-        <v>24928.6</v>
+        <v>142162</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>11969.6</v>
+        <v>-34.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.5</v>
+        <v>-27.4493337812115</v>
       </c>
       <c r="C29" t="n">
-        <v>12907.7</v>
+        <v>12959</v>
       </c>
       <c r="D29" t="n">
-        <v>38324.3</v>
+        <v>12959</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>13395.7</v>
+        <v>-27.4493337812115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-8.1</v>
+        <v>6.6</v>
       </c>
       <c r="C30" t="n">
-        <v>7888.3</v>
+        <v>20249</v>
       </c>
       <c r="D30" t="n">
-        <v>46148.6</v>
+        <v>33208</v>
       </c>
       <c r="E30" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7824.299999999996</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.7775161859918</v>
+        <v>-25.4</v>
       </c>
       <c r="C31" t="n">
-        <v>10345</v>
+        <v>24057</v>
       </c>
       <c r="D31" t="n">
-        <v>56743.6</v>
+        <v>55955</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.34131901418147</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10595</v>
+        <v>-21.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.7188552188552</v>
+        <v>-36.3</v>
       </c>
       <c r="C32" t="n">
-        <v>6695.5</v>
+        <v>17528</v>
       </c>
       <c r="D32" t="n">
-        <v>63414.5</v>
+        <v>73414</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.814108078517244</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6670.900000000001</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>-54.2</v>
       </c>
       <c r="C33" t="n">
-        <v>7456.5</v>
+        <v>12529</v>
       </c>
       <c r="D33" t="n">
-        <v>70706</v>
+        <v>87036</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7291.5</v>
+        <v>-31.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.7581063553826</v>
+        <v>-40.7</v>
       </c>
       <c r="C34" t="n">
-        <v>8867</v>
+        <v>11275</v>
       </c>
       <c r="D34" t="n">
-        <v>77610</v>
+        <v>96208</v>
       </c>
       <c r="E34" t="n">
-        <v>0.414025100271704</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6904</v>
+        <v>-33.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.1</v>
+        <v>-22.4</v>
       </c>
       <c r="C35" t="n">
-        <v>8675</v>
+        <v>10308</v>
       </c>
       <c r="D35" t="n">
-        <v>87561</v>
+        <v>105108</v>
       </c>
       <c r="E35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9951</v>
+        <v>-32.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.09999999999999</v>
+        <v>-48.7</v>
       </c>
       <c r="C36" t="n">
-        <v>10330</v>
+        <v>6313</v>
       </c>
       <c r="D36" t="n">
-        <v>97891</v>
+        <v>111448</v>
       </c>
       <c r="E36" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10330</v>
+        <v>-33.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>94.5</v>
+        <v>-47.8</v>
       </c>
       <c r="C37" t="n">
-        <v>10711.23</v>
+        <v>6406</v>
       </c>
       <c r="D37" t="n">
-        <v>108394.23</v>
+        <v>117849</v>
       </c>
       <c r="E37" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>10503.23</v>
+        <v>-34.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.978498542274</v>
+        <v>40.2471315092674</v>
       </c>
       <c r="C38" t="n">
-        <v>11304.15</v>
+        <v>9534</v>
       </c>
       <c r="D38" t="n">
-        <v>11304.15</v>
+        <v>121984</v>
       </c>
       <c r="E38" t="n">
-        <v>105.978498542274</v>
-      </c>
-      <c r="F38" t="n">
-        <v>11304.15</v>
+        <v>-6.33690886614403</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.227378474348</v>
+        <v>44.5348705775969</v>
       </c>
       <c r="C39" t="n">
-        <v>10962.35</v>
+        <v>12787</v>
       </c>
       <c r="D39" t="n">
-        <v>22266.5</v>
+        <v>135345</v>
       </c>
       <c r="E39" t="n">
-        <v>63.0648114243867</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10962.35</v>
+        <v>-3.08548269294113</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.40000000000001</v>
+        <v>30.6909788867562</v>
       </c>
       <c r="C40" t="n">
-        <v>19067</v>
+        <v>13618</v>
       </c>
       <c r="D40" t="n">
-        <v>41333.5</v>
+        <v>148877</v>
       </c>
       <c r="E40" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>19067</v>
+        <v>1.40448864216872</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C41" t="n">
-        <v>19605</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>60803.5</v>
+        <v>19494</v>
       </c>
       <c r="E41" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19470</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>122.678376229753</v>
+        <v>-22.2924901185771</v>
       </c>
       <c r="C42" t="n">
-        <v>17926.5</v>
+        <v>18677</v>
       </c>
       <c r="D42" t="n">
-        <v>79091</v>
+        <v>38225</v>
       </c>
       <c r="E42" t="n">
-        <v>67.66158607678121</v>
-      </c>
-      <c r="F42" t="n">
-        <v>18287.5</v>
+        <v>-32.2600081518368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.7</v>
+        <v>6.86301596949771</v>
       </c>
       <c r="C43" t="n">
-        <v>15924</v>
+        <v>19339</v>
       </c>
       <c r="D43" t="n">
-        <v>95117</v>
+        <v>58765</v>
       </c>
       <c r="E43" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16026</v>
+        <v>-21.553576911268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.6</v>
+        <v>23.7436214628112</v>
       </c>
       <c r="C44" t="n">
-        <v>14314</v>
+        <v>16005</v>
       </c>
       <c r="D44" t="n">
-        <v>109390</v>
+        <v>75019</v>
       </c>
       <c r="E44" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>14273</v>
+        <v>-14.5997450025044</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.7</v>
+        <v>-7.17707594038325</v>
       </c>
       <c r="C45" t="n">
-        <v>12726</v>
+        <v>10463</v>
       </c>
       <c r="D45" t="n">
-        <v>122888</v>
+        <v>85464</v>
       </c>
       <c r="E45" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>13498</v>
+        <v>-13.8936466036633</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.2</v>
+        <v>-13.1613022567518</v>
       </c>
       <c r="C46" t="n">
-        <v>13005.5</v>
+        <v>9389</v>
       </c>
       <c r="D46" t="n">
-        <v>135893.5</v>
+        <v>94834</v>
       </c>
       <c r="E46" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>13005.5</v>
+        <v>-13.7001883719026</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>59.0417310664606</v>
+        <v>18.8637041455413</v>
       </c>
       <c r="C47" t="n">
-        <v>15435</v>
+        <v>7971</v>
       </c>
       <c r="D47" t="n">
-        <v>151536.5</v>
+        <v>102793</v>
       </c>
       <c r="E47" t="n">
-        <v>65.5358683897185</v>
-      </c>
-      <c r="F47" t="n">
-        <v>15643</v>
+        <v>-11.9892804548101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>59.6</v>
+        <v>41.8344847861238</v>
       </c>
       <c r="C48" t="n">
-        <v>17873.5</v>
+        <v>9649</v>
       </c>
       <c r="D48" t="n">
-        <v>169662</v>
+        <v>112440</v>
       </c>
       <c r="E48" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>18125.5</v>
+        <v>-8.910473999303299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>96.90000000000001</v>
+        <v>-9.33217315640635</v>
       </c>
       <c r="C49" t="n">
-        <v>23011</v>
+        <v>8336</v>
       </c>
       <c r="D49" t="n">
-        <v>192811</v>
+        <v>108394</v>
       </c>
       <c r="E49" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>23149</v>
+        <v>-8.771545919741451</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>52.3002349049083</v>
+        <v>-37.2951783614269</v>
       </c>
       <c r="C50" t="n">
-        <v>17862</v>
+        <v>7998</v>
       </c>
       <c r="D50" t="n">
-        <v>17862</v>
+        <v>116392</v>
       </c>
       <c r="E50" t="n">
-        <v>52.3002349049083</v>
-      </c>
-      <c r="F50" t="n">
-        <v>17862</v>
+        <v>-11.9329918358391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>75.09999999999999</v>
+        <v>-33.7374488657494</v>
       </c>
       <c r="C51" t="n">
-        <v>17918</v>
+        <v>8909</v>
       </c>
       <c r="D51" t="n">
-        <v>35780</v>
+        <v>125301</v>
       </c>
       <c r="E51" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>17918</v>
+        <v>-13.8190972055051</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>27547</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>63328</v>
+        <v>25616</v>
       </c>
       <c r="E52" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>27548</v>
+        <v>32.6429163214582</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>37.4</v>
+        <v>-16.7311668345438</v>
       </c>
       <c r="C53" t="n">
-        <v>24246</v>
+        <v>15707</v>
       </c>
       <c r="D53" t="n">
-        <v>87621</v>
+        <v>41414</v>
       </c>
       <c r="E53" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>24293</v>
+        <v>8.24642567761834</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>48.4</v>
+        <v>-15.0415046758432</v>
       </c>
       <c r="C54" t="n">
-        <v>24514</v>
+        <v>16171</v>
       </c>
       <c r="D54" t="n">
-        <v>113782</v>
+        <v>57677</v>
       </c>
       <c r="E54" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>26161</v>
+        <v>0.807480555798305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.5</v>
+        <v>-25.5188559858264</v>
       </c>
       <c r="C55" t="n">
-        <v>16055</v>
+        <v>11771</v>
       </c>
       <c r="D55" t="n">
-        <v>129837</v>
+        <v>70635</v>
       </c>
       <c r="E55" t="n">
-        <v>44</v>
-      </c>
-      <c r="F55" t="n">
-        <v>16055</v>
+        <v>-4.37802054989238</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-9</v>
+        <v>-22.9035796191046</v>
       </c>
       <c r="C56" t="n">
-        <v>11860</v>
+        <v>7732</v>
       </c>
       <c r="D56" t="n">
-        <v>141694</v>
+        <v>78354</v>
       </c>
       <c r="E56" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>11857</v>
+        <v>-6.57461725568751</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-17.6</v>
+        <v>-14.6541228555617</v>
       </c>
       <c r="C57" t="n">
-        <v>9972</v>
+        <v>7711</v>
       </c>
       <c r="D57" t="n">
-        <v>151399</v>
+        <v>86066</v>
       </c>
       <c r="E57" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F57" t="n">
-        <v>9705</v>
+        <v>-7.34033848671461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-16.5</v>
+        <v>-19.6273943846759</v>
       </c>
       <c r="C58" t="n">
-        <v>10579.7</v>
+        <v>6126</v>
       </c>
       <c r="D58" t="n">
-        <v>161978.7</v>
+        <v>92192</v>
       </c>
       <c r="E58" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10579.70000000001</v>
+        <v>-8.261189722769521</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-28.3</v>
+        <v>-14.5429214446469</v>
       </c>
       <c r="C59" t="n">
-        <v>10615</v>
+        <v>7974</v>
       </c>
       <c r="D59" t="n">
-        <v>172554.7</v>
+        <v>100165</v>
       </c>
       <c r="E59" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>10576</v>
+        <v>-8.76258140911782</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-33</v>
+        <v>-29.7</v>
       </c>
       <c r="C60" t="n">
-        <v>10533.3</v>
+        <v>5708</v>
       </c>
       <c r="D60" t="n">
-        <v>182977</v>
+        <v>78716</v>
       </c>
       <c r="E60" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10422.29999999999</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-43</v>
+        <v>-14</v>
       </c>
       <c r="C61" t="n">
-        <v>11983</v>
+        <v>6675</v>
       </c>
       <c r="D61" t="n">
-        <v>194961</v>
+        <v>85392</v>
       </c>
       <c r="E61" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F61" t="n">
-        <v>11984</v>
+        <v>-23.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-27.4493337812115</v>
+        <v>-16.3</v>
       </c>
       <c r="C62" t="n">
-        <v>12959</v>
+        <v>7271</v>
       </c>
       <c r="D62" t="n">
-        <v>12959</v>
+        <v>92592</v>
       </c>
       <c r="E62" t="n">
-        <v>-27.4493337812115</v>
-      </c>
-      <c r="F62" t="n">
-        <v>12959</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6.6</v>
+        <v>-39.7</v>
       </c>
       <c r="C63" t="n">
-        <v>20249</v>
+        <v>6748</v>
       </c>
       <c r="D63" t="n">
-        <v>33208</v>
+        <v>17217</v>
       </c>
       <c r="E63" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F63" t="n">
-        <v>20249</v>
+        <v>-30.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-25.4</v>
+        <v>-23.7</v>
       </c>
       <c r="C64" t="n">
-        <v>24057</v>
+        <v>11426</v>
       </c>
       <c r="D64" t="n">
-        <v>55955</v>
+        <v>28674</v>
       </c>
       <c r="E64" t="n">
-        <v>-21.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>22747</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-36.3</v>
+        <v>-31.1</v>
       </c>
       <c r="C65" t="n">
-        <v>17528</v>
+        <v>10793</v>
       </c>
       <c r="D65" t="n">
-        <v>73414</v>
+        <v>39539</v>
       </c>
       <c r="E65" t="n">
-        <v>-25.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>17459</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-54.2</v>
+        <v>-17.8</v>
       </c>
       <c r="C66" t="n">
-        <v>12529</v>
+        <v>9243</v>
       </c>
       <c r="D66" t="n">
-        <v>87036</v>
+        <v>47834</v>
       </c>
       <c r="E66" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="F66" t="n">
-        <v>13622</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-40.7</v>
+        <v>-10.3</v>
       </c>
       <c r="C67" t="n">
-        <v>11275</v>
+        <v>6698</v>
       </c>
       <c r="D67" t="n">
-        <v>96208</v>
+        <v>54449</v>
       </c>
       <c r="E67" t="n">
-        <v>-33.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>9172</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-22.4</v>
+        <v>-15.5</v>
       </c>
       <c r="C68" t="n">
-        <v>10308</v>
+        <v>6308</v>
       </c>
       <c r="D68" t="n">
-        <v>105108</v>
+        <v>60839</v>
       </c>
       <c r="E68" t="n">
-        <v>-32.9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8900</v>
+        <v>-26.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-48.7</v>
+        <v>-5.5</v>
       </c>
       <c r="C69" t="n">
-        <v>6313</v>
+        <v>5584</v>
       </c>
       <c r="D69" t="n">
-        <v>111448</v>
+        <v>66303</v>
       </c>
       <c r="E69" t="n">
-        <v>-33.9</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6340</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-47.8</v>
+        <v>-15</v>
       </c>
       <c r="C70" t="n">
-        <v>6406</v>
+        <v>6557</v>
       </c>
       <c r="D70" t="n">
-        <v>117849</v>
+        <v>73031</v>
       </c>
       <c r="E70" t="n">
-        <v>-34.7</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6401</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-48</v>
+        <v>62.9</v>
       </c>
       <c r="C71" t="n">
-        <v>6252</v>
+        <v>9286</v>
       </c>
       <c r="D71" t="n">
-        <v>124105</v>
+        <v>88476</v>
       </c>
       <c r="E71" t="n">
-        <v>-35.6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6256</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-20.6</v>
+        <v>61.4</v>
       </c>
       <c r="C72" t="n">
-        <v>8282</v>
+        <v>10774</v>
       </c>
       <c r="D72" t="n">
-        <v>132387</v>
+        <v>99447</v>
       </c>
       <c r="E72" t="n">
-        <v>-34.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>8282</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-27.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>9775</v>
+        <v>11920</v>
       </c>
       <c r="D73" t="n">
-        <v>142162</v>
+        <v>111395</v>
       </c>
       <c r="E73" t="n">
-        <v>-34.4</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9775</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>19494</v>
+        <v>14358</v>
       </c>
       <c r="E74" t="n">
-        <v>-42.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19494</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-22.2924901185771</v>
+        <v>-6.7</v>
       </c>
       <c r="C75" t="n">
-        <v>18677</v>
+        <v>10740</v>
       </c>
       <c r="D75" t="n">
-        <v>38225</v>
+        <v>25081</v>
       </c>
       <c r="E75" t="n">
-        <v>-32.2600081518368</v>
-      </c>
-      <c r="F75" t="n">
-        <v>18731</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.86301596949771</v>
+        <v>5.5</v>
       </c>
       <c r="C76" t="n">
-        <v>19339</v>
+        <v>11513</v>
       </c>
       <c r="D76" t="n">
-        <v>58765</v>
+        <v>36691</v>
       </c>
       <c r="E76" t="n">
-        <v>-21.553576911268</v>
-      </c>
-      <c r="F76" t="n">
-        <v>20540</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>23.7436214628112</v>
+        <v>10.8</v>
       </c>
       <c r="C77" t="n">
-        <v>16005</v>
+        <v>10211</v>
       </c>
       <c r="D77" t="n">
-        <v>75019</v>
+        <v>46900</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.5997450025044</v>
-      </c>
-      <c r="F77" t="n">
-        <v>16254</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-7.17707594038325</v>
+        <v>19.8</v>
       </c>
       <c r="C78" t="n">
-        <v>10463</v>
+        <v>8278</v>
       </c>
       <c r="D78" t="n">
-        <v>85464</v>
+        <v>55161</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.8936466036633</v>
-      </c>
-      <c r="F78" t="n">
-        <v>10445</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-13.1613022567518</v>
+        <v>27.1</v>
       </c>
       <c r="C79" t="n">
-        <v>9389</v>
+        <v>8215</v>
       </c>
       <c r="D79" t="n">
-        <v>94834</v>
+        <v>63156</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.7001883719026</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9370</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18.8637041455413</v>
+        <v>34</v>
       </c>
       <c r="C80" t="n">
-        <v>7971</v>
+        <v>7518</v>
       </c>
       <c r="D80" t="n">
-        <v>102793</v>
+        <v>70397</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.9892804548101</v>
-      </c>
-      <c r="F80" t="n">
-        <v>7959</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>41.8344847861238</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>9649</v>
+        <v>8795</v>
       </c>
       <c r="D81" t="n">
-        <v>112440</v>
+        <v>79192</v>
       </c>
       <c r="E81" t="n">
-        <v>-8.910473999303299</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9647</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>40.2471315092674</v>
+        <v>56.5</v>
       </c>
       <c r="C82" t="n">
-        <v>9534</v>
+        <v>16092</v>
       </c>
       <c r="D82" t="n">
-        <v>121984</v>
+        <v>162500</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.33690886614403</v>
-      </c>
-      <c r="F82" t="n">
-        <v>9544</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>44.5348705775969</v>
+        <v>63.9</v>
       </c>
       <c r="C83" t="n">
-        <v>12787</v>
+        <v>19868</v>
       </c>
       <c r="D83" t="n">
-        <v>135345</v>
+        <v>182141</v>
       </c>
       <c r="E83" t="n">
-        <v>-3.08548269294113</v>
-      </c>
-      <c r="F83" t="n">
-        <v>13361</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>30.6909788867562</v>
+        <v>89</v>
       </c>
       <c r="C84" t="n">
-        <v>13618</v>
+        <v>23010</v>
       </c>
       <c r="D84" t="n">
-        <v>148877</v>
+        <v>194606</v>
       </c>
       <c r="E84" t="n">
-        <v>1.40448864216872</v>
-      </c>
-      <c r="F84" t="n">
-        <v>13532</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>25616</v>
+        <v>22381</v>
       </c>
       <c r="E85" t="n">
-        <v>32.6429163214582</v>
-      </c>
-      <c r="F85" t="n">
-        <v>25616</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-16.7311668345438</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>15707</v>
+        <v>19292</v>
       </c>
       <c r="D86" t="n">
-        <v>41414</v>
+        <v>44682</v>
       </c>
       <c r="E86" t="n">
-        <v>8.24642567761834</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15798</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-15.0415046758432</v>
+        <v>62.7</v>
       </c>
       <c r="C87" t="n">
-        <v>16171</v>
+        <v>18676</v>
       </c>
       <c r="D87" t="n">
-        <v>57677</v>
+        <v>63433</v>
       </c>
       <c r="E87" t="n">
-        <v>0.807480555798305</v>
-      </c>
-      <c r="F87" t="n">
-        <v>16263</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-25.5188559858264</v>
+        <v>63.8</v>
       </c>
       <c r="C88" t="n">
-        <v>11771</v>
+        <v>16675</v>
       </c>
       <c r="D88" t="n">
-        <v>70635</v>
+        <v>80108</v>
       </c>
       <c r="E88" t="n">
-        <v>-4.37802054989238</v>
-      </c>
-      <c r="F88" t="n">
-        <v>12958</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-22.9035796191046</v>
+        <v>78.7</v>
       </c>
       <c r="C89" t="n">
-        <v>7732</v>
+        <v>14730</v>
       </c>
       <c r="D89" t="n">
-        <v>78354</v>
+        <v>94839</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.57461725568751</v>
-      </c>
-      <c r="F89" t="n">
-        <v>7719</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-14.6541228555617</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>7711</v>
+        <v>14651</v>
       </c>
       <c r="D90" t="n">
-        <v>86066</v>
+        <v>117735</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.34033848671461</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7712</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-19.6273943846759</v>
+        <v>69.7</v>
       </c>
       <c r="C91" t="n">
-        <v>6126</v>
+        <v>14111</v>
       </c>
       <c r="D91" t="n">
-        <v>92192</v>
+        <v>131210</v>
       </c>
       <c r="E91" t="n">
-        <v>-8.261189722769521</v>
-      </c>
-      <c r="F91" t="n">
-        <v>6126</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-14.5429214446469</v>
+        <v>59</v>
       </c>
       <c r="C92" t="n">
-        <v>7974</v>
+        <v>15238</v>
       </c>
       <c r="D92" t="n">
-        <v>100165</v>
+        <v>146180</v>
       </c>
       <c r="E92" t="n">
-        <v>-8.76258140911782</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7973</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-9.33217315640635</v>
+        <v>51.1</v>
       </c>
       <c r="C93" t="n">
-        <v>8336</v>
+        <v>21405</v>
       </c>
       <c r="D93" t="n">
-        <v>108394</v>
+        <v>216101</v>
       </c>
       <c r="E93" t="n">
-        <v>-8.771545919741451</v>
-      </c>
-      <c r="F93" t="n">
-        <v>8229</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.2951783614269</v>
+        <v>40.1</v>
       </c>
       <c r="C94" t="n">
-        <v>7998</v>
+        <v>25232</v>
       </c>
       <c r="D94" t="n">
-        <v>116392</v>
+        <v>240710</v>
       </c>
       <c r="E94" t="n">
-        <v>-11.9329918358391</v>
-      </c>
-      <c r="F94" t="n">
-        <v>7998</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-33.7374488657494</v>
+        <v>29.1</v>
       </c>
       <c r="C95" t="n">
-        <v>8909</v>
+        <v>28822</v>
       </c>
       <c r="D95" t="n">
-        <v>125301</v>
+        <v>269532</v>
       </c>
       <c r="E95" t="n">
-        <v>-13.8190972055051</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8909</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-39.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>6748</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>17217</v>
+        <v>34283</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>17217</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-23.7</v>
+        <v>21.8</v>
       </c>
       <c r="C97" t="n">
-        <v>11426</v>
+        <v>27302</v>
       </c>
       <c r="D97" t="n">
-        <v>28674</v>
+        <v>61620</v>
       </c>
       <c r="E97" t="n">
-        <v>-27.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11457</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-31.1</v>
+        <v>35.8</v>
       </c>
       <c r="C98" t="n">
-        <v>10793</v>
+        <v>25822</v>
       </c>
       <c r="D98" t="n">
-        <v>39539</v>
+        <v>87534</v>
       </c>
       <c r="E98" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10865</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-17.8</v>
+        <v>51.6</v>
       </c>
       <c r="C99" t="n">
-        <v>9243</v>
+        <v>25618</v>
       </c>
       <c r="D99" t="n">
-        <v>47834</v>
+        <v>111922</v>
       </c>
       <c r="E99" t="n">
-        <v>-27.8</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8295</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-10.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>6698</v>
+        <v>24601</v>
       </c>
       <c r="D100" t="n">
-        <v>54449</v>
+        <v>137150</v>
       </c>
       <c r="E100" t="n">
-        <v>-27.5</v>
-      </c>
-      <c r="F100" t="n">
-        <v>6615</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-15.5</v>
+        <v>57.4</v>
       </c>
       <c r="C101" t="n">
-        <v>6308</v>
+        <v>20958</v>
       </c>
       <c r="D101" t="n">
-        <v>60839</v>
+        <v>158798</v>
       </c>
       <c r="E101" t="n">
-        <v>-26.4</v>
-      </c>
-      <c r="F101" t="n">
-        <v>6390</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-5.5</v>
+        <v>33.2</v>
       </c>
       <c r="C102" t="n">
-        <v>5584</v>
+        <v>17524</v>
       </c>
       <c r="D102" t="n">
-        <v>66303</v>
+        <v>176323</v>
       </c>
       <c r="E102" t="n">
-        <v>-25.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5464</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-15</v>
+        <v>48.1</v>
       </c>
       <c r="C103" t="n">
-        <v>6557</v>
+        <v>19655</v>
       </c>
       <c r="D103" t="n">
-        <v>73031</v>
+        <v>194153</v>
       </c>
       <c r="E103" t="n">
-        <v>-24.3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6728</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-29.7</v>
+        <v>23.1</v>
       </c>
       <c r="C104" t="n">
-        <v>5708</v>
+        <v>24889</v>
       </c>
       <c r="D104" t="n">
-        <v>78716</v>
+        <v>237889</v>
       </c>
       <c r="E104" t="n">
-        <v>-24.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5685</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-14</v>
+        <v>17</v>
       </c>
       <c r="C105" t="n">
-        <v>6675</v>
+        <v>26180</v>
       </c>
       <c r="D105" t="n">
-        <v>85392</v>
+        <v>237582</v>
       </c>
       <c r="E105" t="n">
-        <v>-23.9</v>
-      </c>
-      <c r="F105" t="n">
-        <v>6676</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-16.3</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>7271</v>
+        <v>28720</v>
       </c>
       <c r="D106" t="n">
-        <v>92592</v>
+        <v>266299</v>
       </c>
       <c r="E106" t="n">
-        <v>-23.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7200</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>14358</v>
+        <v>49534</v>
       </c>
       <c r="E107" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>14358</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-6.7</v>
+        <v>27.5</v>
       </c>
       <c r="C108" t="n">
-        <v>10740</v>
+        <v>33877</v>
       </c>
       <c r="D108" t="n">
-        <v>25081</v>
+        <v>83573</v>
       </c>
       <c r="E108" t="n">
-        <v>-12.6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>10723</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5.5</v>
+        <v>20.6</v>
       </c>
       <c r="C109" t="n">
-        <v>11513</v>
+        <v>30825</v>
       </c>
       <c r="D109" t="n">
-        <v>36691</v>
+        <v>114193</v>
       </c>
       <c r="E109" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>11610</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10.8</v>
+        <v>-4.4</v>
       </c>
       <c r="C110" t="n">
-        <v>10211</v>
+        <v>24209</v>
       </c>
       <c r="D110" t="n">
-        <v>46900</v>
+        <v>138450</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10209</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>19.8</v>
+        <v>-12</v>
       </c>
       <c r="C111" t="n">
-        <v>8278</v>
+        <v>21378</v>
       </c>
       <c r="D111" t="n">
-        <v>55161</v>
+        <v>159884</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F111" t="n">
-        <v>8261</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>27.1</v>
+        <v>-22.7</v>
       </c>
       <c r="C112" t="n">
-        <v>8215</v>
+        <v>15813</v>
       </c>
       <c r="D112" t="n">
-        <v>63156</v>
+        <v>176517</v>
       </c>
       <c r="E112" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>7995</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="C113" t="n">
-        <v>7518</v>
+        <v>17540</v>
       </c>
       <c r="D113" t="n">
-        <v>70397</v>
+        <v>192418</v>
       </c>
       <c r="E113" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7241</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>34</v>
+        <v>18.1</v>
       </c>
       <c r="C114" t="n">
-        <v>8795</v>
+        <v>21957</v>
       </c>
       <c r="D114" t="n">
-        <v>79192</v>
+        <v>213949</v>
       </c>
       <c r="E114" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F114" t="n">
-        <v>8795</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>62.9</v>
+        <v>42.4</v>
       </c>
       <c r="C115" t="n">
-        <v>9286</v>
+        <v>35098</v>
       </c>
       <c r="D115" t="n">
-        <v>88476</v>
+        <v>307284</v>
       </c>
       <c r="E115" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>9284</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>61.4</v>
+        <v>49.9</v>
       </c>
       <c r="C116" t="n">
-        <v>10774</v>
+        <v>44371</v>
       </c>
       <c r="D116" t="n">
-        <v>99447</v>
+        <v>351656</v>
       </c>
       <c r="E116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10971</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>65.40000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="C117" t="n">
-        <v>11920</v>
+        <v>49439</v>
       </c>
       <c r="D117" t="n">
-        <v>111395</v>
+        <v>401096</v>
       </c>
       <c r="E117" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>11948</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>22381</v>
+        <v>27629</v>
       </c>
       <c r="E118" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>22381</v>
+        <v>-35.7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>79.59999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="C119" t="n">
-        <v>19292</v>
+        <v>31101</v>
       </c>
       <c r="D119" t="n">
-        <v>44682</v>
+        <v>58735</v>
       </c>
       <c r="E119" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22301</v>
+        <v>-19.9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>62.7</v>
+        <v>49.5</v>
       </c>
       <c r="C120" t="n">
-        <v>18676</v>
+        <v>43622</v>
       </c>
       <c r="D120" t="n">
-        <v>63433</v>
+        <v>112927</v>
       </c>
       <c r="E120" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="F120" t="n">
-        <v>18751</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>63.8</v>
+        <v>82.3</v>
       </c>
       <c r="C121" t="n">
-        <v>16675</v>
+        <v>40420</v>
       </c>
       <c r="D121" t="n">
-        <v>80108</v>
+        <v>153289</v>
       </c>
       <c r="E121" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>16675</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>78.7</v>
+        <v>75.2</v>
       </c>
       <c r="C122" t="n">
-        <v>14730</v>
+        <v>33970</v>
       </c>
       <c r="D122" t="n">
-        <v>94839</v>
+        <v>187379</v>
       </c>
       <c r="E122" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>14731</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>66.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C123" t="n">
-        <v>14651</v>
+        <v>25275</v>
       </c>
       <c r="D123" t="n">
-        <v>117735</v>
+        <v>213364</v>
       </c>
       <c r="E123" t="n">
-        <v>69</v>
-      </c>
-      <c r="F123" t="n">
-        <v>22896</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>69.7</v>
+        <v>58.2</v>
       </c>
       <c r="C124" t="n">
-        <v>14111</v>
+        <v>27006</v>
       </c>
       <c r="D124" t="n">
-        <v>131210</v>
+        <v>240308</v>
       </c>
       <c r="E124" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F124" t="n">
-        <v>13475</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>59</v>
+        <v>56.5</v>
       </c>
       <c r="C125" t="n">
-        <v>15238</v>
+        <v>31789</v>
       </c>
       <c r="D125" t="n">
-        <v>146180</v>
+        <v>272118</v>
       </c>
       <c r="E125" t="n">
-        <v>67</v>
-      </c>
-      <c r="F125" t="n">
-        <v>14970</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>56.5</v>
+        <v>-11.4</v>
       </c>
       <c r="C126" t="n">
-        <v>16092</v>
+        <v>26725</v>
       </c>
       <c r="D126" t="n">
-        <v>162500</v>
+        <v>299230</v>
       </c>
       <c r="E126" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>16320</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>63.9</v>
+        <v>-15.6</v>
       </c>
       <c r="C127" t="n">
-        <v>19868</v>
+        <v>29850</v>
       </c>
       <c r="D127" t="n">
-        <v>182141</v>
+        <v>329044</v>
       </c>
       <c r="E127" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>19641</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>89</v>
+        <v>-18</v>
       </c>
       <c r="C128" t="n">
-        <v>23010</v>
+        <v>32949</v>
       </c>
       <c r="D128" t="n">
-        <v>194606</v>
+        <v>362029</v>
       </c>
       <c r="E128" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>12465</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>34283</v>
+        <v>71089</v>
       </c>
       <c r="E129" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="F129" t="n">
-        <v>34283</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>21.8</v>
+        <v>61.5</v>
       </c>
       <c r="C130" t="n">
-        <v>27302</v>
+        <v>58429</v>
       </c>
       <c r="D130" t="n">
-        <v>61620</v>
+        <v>132983</v>
       </c>
       <c r="E130" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>27337</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>35.8</v>
+        <v>-2.9</v>
       </c>
       <c r="C131" t="n">
-        <v>25822</v>
+        <v>43412</v>
       </c>
       <c r="D131" t="n">
-        <v>87534</v>
+        <v>182187</v>
       </c>
       <c r="E131" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F131" t="n">
-        <v>25914</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>51.6</v>
+        <v>-18.8</v>
       </c>
       <c r="C132" t="n">
-        <v>25618</v>
+        <v>36102</v>
       </c>
       <c r="D132" t="n">
-        <v>111922</v>
+        <v>235183</v>
       </c>
       <c r="E132" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>24388</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>67.09999999999999</v>
+        <v>-25.7</v>
       </c>
       <c r="C133" t="n">
-        <v>24601</v>
+        <v>27284</v>
       </c>
       <c r="D133" t="n">
-        <v>137150</v>
+        <v>261740</v>
       </c>
       <c r="E133" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>25228</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>57.4</v>
+        <v>-18.4</v>
       </c>
       <c r="C134" t="n">
-        <v>20958</v>
+        <v>18357</v>
       </c>
       <c r="D134" t="n">
-        <v>158798</v>
+        <v>232633</v>
       </c>
       <c r="E134" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F134" t="n">
-        <v>21648</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>33.2</v>
+        <v>-24.6</v>
       </c>
       <c r="C135" t="n">
-        <v>17524</v>
+        <v>17236</v>
       </c>
       <c r="D135" t="n">
-        <v>176323</v>
+        <v>250007</v>
       </c>
       <c r="E135" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>17525</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>48.1</v>
+        <v>-5.7</v>
       </c>
       <c r="C136" t="n">
-        <v>19655</v>
+        <v>25894</v>
       </c>
       <c r="D136" t="n">
-        <v>194153</v>
+        <v>272730</v>
       </c>
       <c r="E136" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>17830</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>51.1</v>
+        <v>-9.9</v>
       </c>
       <c r="C137" t="n">
-        <v>21405</v>
+        <v>26235</v>
       </c>
       <c r="D137" t="n">
-        <v>216101</v>
+        <v>257791</v>
       </c>
       <c r="E137" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>21948</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>40.1</v>
+        <v>-15.3</v>
       </c>
       <c r="C138" t="n">
-        <v>25232</v>
+        <v>26435</v>
       </c>
       <c r="D138" t="n">
-        <v>240710</v>
+        <v>284202</v>
       </c>
       <c r="E138" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>24609</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>29.1</v>
+        <v>-34.9</v>
       </c>
       <c r="C139" t="n">
-        <v>28822</v>
+        <v>22751</v>
       </c>
       <c r="D139" t="n">
-        <v>269532</v>
+        <v>306950</v>
       </c>
       <c r="E139" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>28822</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>49534</v>
+        <v>62650</v>
       </c>
       <c r="E140" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>49534</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>27.5</v>
+        <v>-30.3</v>
       </c>
       <c r="C141" t="n">
-        <v>33877</v>
+        <v>30812</v>
       </c>
       <c r="D141" t="n">
-        <v>83573</v>
+        <v>93315</v>
       </c>
       <c r="E141" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>34039</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>20.6</v>
+        <v>-58.9</v>
       </c>
       <c r="C142" t="n">
-        <v>30825</v>
+        <v>13981</v>
       </c>
       <c r="D142" t="n">
-        <v>114193</v>
+        <v>106459</v>
       </c>
       <c r="E142" t="n">
-        <v>34</v>
-      </c>
-      <c r="F142" t="n">
-        <v>30620</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-4.4</v>
+        <v>-30.4</v>
       </c>
       <c r="C143" t="n">
-        <v>24209</v>
+        <v>20937</v>
       </c>
       <c r="D143" t="n">
-        <v>138450</v>
+        <v>134705</v>
       </c>
       <c r="E143" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>24257</v>
+        <v>-30.5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-12</v>
+        <v>-3.4</v>
       </c>
       <c r="C144" t="n">
-        <v>21378</v>
+        <v>21769</v>
       </c>
       <c r="D144" t="n">
-        <v>159884</v>
+        <v>156803</v>
       </c>
       <c r="E144" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>21434</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-22.7</v>
+        <v>-3.2</v>
       </c>
       <c r="C145" t="n">
-        <v>15813</v>
+        <v>19612</v>
       </c>
       <c r="D145" t="n">
-        <v>176517</v>
+        <v>185743</v>
       </c>
       <c r="E145" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16633</v>
+        <v>-25.6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>17540</v>
+        <v>21039</v>
       </c>
       <c r="D146" t="n">
-        <v>192418</v>
+        <v>208417</v>
       </c>
       <c r="E146" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>15901</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>18.1</v>
+        <v>-18.5</v>
       </c>
       <c r="C147" t="n">
-        <v>21957</v>
+        <v>23024</v>
       </c>
       <c r="D147" t="n">
-        <v>213949</v>
+        <v>231416</v>
       </c>
       <c r="E147" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>21531</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>24889</v>
-      </c>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>237889</v>
+        <v>40816</v>
       </c>
       <c r="E148" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F148" t="n">
-        <v>23940</v>
+        <v>-38.9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>17</v>
+        <v>3.7</v>
       </c>
       <c r="C149" t="n">
-        <v>26180</v>
+        <v>34363</v>
       </c>
       <c r="D149" t="n">
-        <v>237582</v>
+        <v>75103</v>
       </c>
       <c r="E149" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F149" t="n">
-        <v>237582</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>13</v>
+        <v>36.7</v>
       </c>
       <c r="C150" t="n">
-        <v>28720</v>
+        <v>19652</v>
       </c>
       <c r="D150" t="n">
-        <v>266299</v>
+        <v>94753</v>
       </c>
       <c r="E150" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28717</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>16613</v>
+      </c>
       <c r="D151" t="n">
-        <v>27629</v>
+        <v>117524</v>
       </c>
       <c r="E151" t="n">
-        <v>-35.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>27629</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.3</v>
+        <v>-15.3</v>
       </c>
       <c r="C152" t="n">
-        <v>31101</v>
+        <v>20364</v>
       </c>
       <c r="D152" t="n">
-        <v>58735</v>
+        <v>137741</v>
       </c>
       <c r="E152" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="F152" t="n">
-        <v>31106</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>43622</v>
-      </c>
-      <c r="D153" t="n">
-        <v>112927</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>54192</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>82.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>40420</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153289</v>
-      </c>
-      <c r="E154" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>40362</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>33970</v>
-      </c>
-      <c r="D155" t="n">
-        <v>187379</v>
-      </c>
-      <c r="E155" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>34090</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>25275</v>
-      </c>
-      <c r="D156" t="n">
-        <v>213364</v>
-      </c>
-      <c r="E156" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>25985</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27006</v>
-      </c>
-      <c r="D157" t="n">
-        <v>240308</v>
-      </c>
-      <c r="E157" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>26944</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>31789</v>
-      </c>
-      <c r="D158" t="n">
-        <v>272118</v>
-      </c>
-      <c r="E158" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>31810</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="C159" t="n">
-        <v>35098</v>
-      </c>
-      <c r="D159" t="n">
-        <v>307284</v>
-      </c>
-      <c r="E159" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>35166</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>44371</v>
-      </c>
-      <c r="D160" t="n">
-        <v>351656</v>
-      </c>
-      <c r="E160" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>44372</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>49439</v>
-      </c>
-      <c r="D161" t="n">
-        <v>401096</v>
-      </c>
-      <c r="E161" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F161" t="n">
-        <v>49440</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="n">
-        <v>71089</v>
-      </c>
-      <c r="E162" t="n">
-        <v>113</v>
-      </c>
-      <c r="F162" t="n">
-        <v>71089</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>58429</v>
-      </c>
-      <c r="D163" t="n">
-        <v>132983</v>
-      </c>
-      <c r="E163" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>61894</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="C164" t="n">
-        <v>43412</v>
-      </c>
-      <c r="D164" t="n">
-        <v>182187</v>
-      </c>
-      <c r="E164" t="n">
-        <v>53</v>
-      </c>
-      <c r="F164" t="n">
-        <v>49204</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>-18.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>36102</v>
-      </c>
-      <c r="D165" t="n">
-        <v>235183</v>
-      </c>
-      <c r="E165" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>52996</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>-25.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>27284</v>
-      </c>
-      <c r="D166" t="n">
-        <v>261740</v>
-      </c>
-      <c r="E166" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>26557</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>-18.4</v>
-      </c>
-      <c r="C167" t="n">
-        <v>18357</v>
-      </c>
-      <c r="D167" t="n">
-        <v>232633</v>
-      </c>
-      <c r="E167" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>232633</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>-24.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>17236</v>
-      </c>
-      <c r="D168" t="n">
-        <v>250007</v>
-      </c>
-      <c r="E168" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F168" t="n">
-        <v>17374</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>-5.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>25894</v>
-      </c>
-      <c r="D169" t="n">
-        <v>272730</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15</v>
-      </c>
-      <c r="F169" t="n">
-        <v>22723</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>26725</v>
-      </c>
-      <c r="D170" t="n">
-        <v>299230</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F170" t="n">
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>-15.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>29850</v>
-      </c>
-      <c r="D171" t="n">
-        <v>329044</v>
-      </c>
-      <c r="E171" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>29814</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
         <v>-18</v>
-      </c>
-      <c r="C172" t="n">
-        <v>32949</v>
-      </c>
-      <c r="D172" t="n">
-        <v>362029</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>32985</v>
       </c>
     </row>
   </sheetData>
